--- a/i_codebooks/D3_DU_selection_criteria_from_SAP1_MS_cohort_to_DU_MS_cohort.xlsx
+++ b/i_codebooks/D3_DU_selection_criteria_from_SAP1_MS_cohort_to_DU_MS_cohort.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Parameters" sheetId="3" r:id="rId3"/>
     <sheet name="Example" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mhzNGBeK9861EYEtgLjD+CXFeX/VQ=="/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>medatata_name</t>
   </si>
@@ -41,19 +41,10 @@
     <t>content of the D3</t>
   </si>
   <si>
-    <t>contains the exclusion criteria to go from D3_study_population_SAP1_MS to the study population of the DP3 SAP2</t>
-  </si>
-  <si>
     <t>Unit of observation</t>
   </si>
   <si>
-    <t>D3_study_population_SAP1_MS</t>
-  </si>
-  <si>
     <t>Primary key</t>
-  </si>
-  <si>
-    <t>person_id algorithm</t>
   </si>
   <si>
     <t>Variable</t>
@@ -86,25 +77,7 @@
     <t>never_positive_for_MS_chosen</t>
   </si>
   <si>
-    <t>excludes persons who are  never positive for MS_chosen during their study period</t>
-  </si>
-  <si>
     <t>binary</t>
-  </si>
-  <si>
-    <t>0 = positive at some point</t>
-  </si>
-  <si>
-    <t>1 = never positive</t>
-  </si>
-  <si>
-    <t>women_outside_childbearing_age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excludes persons which are less than 15 years old and </t>
-  </si>
-  <si>
-    <t>1 = positive at some point</t>
   </si>
   <si>
     <t>Dataset where the list of UoOs is fully listed and with 1 record per UoO</t>
@@ -124,16 +97,96 @@
   <si>
     <t>D3_DU_selection_criteria_from_SAP1_MS_cohort_to_DU_MS_cohort</t>
   </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>a person in the SAP1 study population</t>
+  </si>
+  <si>
+    <t>D3_study_population_SAP1</t>
+  </si>
+  <si>
+    <t>person_id</t>
+  </si>
+  <si>
+    <t>contains the exclusion criteria to go from D3_study_population_SAP1 to the study population of the DP3 DU, as decsribed in subsection 4.3.1 of MS DP3_SAP_DU_MS_V2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 = positive at some point
+1 = otherwise
+</t>
+  </si>
+  <si>
+    <t>Retrieved</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Algorithm_id</t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>women_diagnosed_outside_childbearing_age</t>
+  </si>
+  <si>
+    <t>women_with_less_than_1_year_fup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 = outside of childbearing age
+1 = otherwise
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 = less than year of follow up at diagnosis date
+1 = otherwise
+</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>excludes persons who are  never positive for MS_chosen during their study period, that is, who are not stored in D3_SAP1_MS-COHORT</t>
+  </si>
+  <si>
+    <t>excludes persons which are &lt; 15 years old and &gt; 50 at D3_SAP1_MS-COHORT/date_MS</t>
+  </si>
+  <si>
+    <t>excludes women who are diagnosed &lt;1 year before D3_SAP1_MS-COHORT/cohort_exit_date</t>
+  </si>
+  <si>
+    <t>D3_SAP1_MS-COHORT/cohort_exit_date - D3_SAP1_MS-COHORT/date_MS &lt; 365</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,28 +222,30 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -202,7 +257,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -278,32 +333,6 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="thin">
@@ -326,55 +355,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -592,14 +640,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41.44140625" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" customWidth="1"/>
+    <col min="2" max="2" width="75.21875" style="13" customWidth="1"/>
     <col min="3" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -607,7 +655,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2"/>
@@ -631,12 +679,12 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
+      <c r="B2" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -659,12 +707,12 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
+      <c r="B3" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -687,12 +735,12 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
+      <c r="B4" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -716,10 +764,12 @@
       <c r="V4" s="2"/>
     </row>
     <row r="5" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="4"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -742,10 +792,10 @@
       <c r="V5" s="2"/>
     </row>
     <row r="6" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>27</v>
+      <c r="A6" s="9" t="s">
+        <v>18</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="14">
         <v>1</v>
       </c>
       <c r="C6" s="2"/>
@@ -770,10 +820,12 @@
       <c r="V6" s="2"/>
     </row>
     <row r="7" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>28</v>
+      <c r="A7" s="9" t="s">
+        <v>19</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -796,11 +848,11 @@
       <c r="V7" s="2"/>
     </row>
     <row r="8" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>29</v>
+      <c r="A8" s="9" t="s">
+        <v>20</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>8</v>
+      <c r="B8" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -824,10 +876,12 @@
       <c r="V8" s="2"/>
     </row>
     <row r="9" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>7</v>
+      <c r="A9" s="9" t="s">
+        <v>5</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -850,10 +904,10 @@
       <c r="V9" s="2"/>
     </row>
     <row r="10" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>30</v>
+      <c r="A10" s="10" t="s">
+        <v>21</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -877,7 +931,7 @@
     </row>
     <row r="11" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
-      <c r="B11" s="1"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -901,7 +955,7 @@
     </row>
     <row r="12" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="1"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -925,7 +979,7 @@
     </row>
     <row r="13" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -949,7 +1003,7 @@
     </row>
     <row r="14" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -972,8 +1026,8 @@
       <c r="V14" s="2"/>
     </row>
     <row r="15" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -997,7 +1051,7 @@
     </row>
     <row r="16" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1021,7 +1075,7 @@
     </row>
     <row r="17" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1045,7 +1099,7 @@
     </row>
     <row r="18" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1069,7 +1123,7 @@
     </row>
     <row r="19" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1093,7 +1147,7 @@
     </row>
     <row r="20" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1117,7 +1171,7 @@
     </row>
     <row r="21" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1141,7 +1195,7 @@
     </row>
     <row r="22" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1165,7 +1219,7 @@
     </row>
     <row r="23" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1189,7 +1243,7 @@
     </row>
     <row r="24" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1213,7 +1267,7 @@
     </row>
     <row r="25" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1237,7 +1291,7 @@
     </row>
     <row r="26" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1261,7 +1315,7 @@
     </row>
     <row r="27" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1285,7 +1339,7 @@
     </row>
     <row r="28" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1309,7 +1363,7 @@
     </row>
     <row r="29" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1333,7 +1387,7 @@
     </row>
     <row r="30" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1357,7 +1411,7 @@
     </row>
     <row r="31" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1381,7 +1435,7 @@
     </row>
     <row r="32" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1405,7 +1459,7 @@
     </row>
     <row r="33" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1429,7 +1483,7 @@
     </row>
     <row r="34" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1453,7 +1507,7 @@
     </row>
     <row r="35" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1477,7 +1531,7 @@
     </row>
     <row r="36" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1501,7 +1555,7 @@
     </row>
     <row r="37" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1525,7 +1579,7 @@
     </row>
     <row r="38" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1549,7 +1603,7 @@
     </row>
     <row r="39" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1573,7 +1627,7 @@
     </row>
     <row r="40" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1597,7 +1651,7 @@
     </row>
     <row r="41" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1621,7 +1675,7 @@
     </row>
     <row r="42" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1645,7 +1699,7 @@
     </row>
     <row r="43" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -1669,7 +1723,7 @@
     </row>
     <row r="44" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+      <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1693,7 +1747,7 @@
     </row>
     <row r="45" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -1717,7 +1771,7 @@
     </row>
     <row r="46" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+      <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1741,7 +1795,7 @@
     </row>
     <row r="47" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1765,7 +1819,7 @@
     </row>
     <row r="48" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+      <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1789,7 +1843,7 @@
     </row>
     <row r="49" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+      <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1813,7 +1867,7 @@
     </row>
     <row r="50" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+      <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -1837,7 +1891,7 @@
     </row>
     <row r="51" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+      <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -1861,7 +1915,7 @@
     </row>
     <row r="52" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -1885,7 +1939,7 @@
     </row>
     <row r="53" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+      <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -1909,7 +1963,7 @@
     </row>
     <row r="54" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -1933,7 +1987,7 @@
     </row>
     <row r="55" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+      <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -1957,7 +2011,7 @@
     </row>
     <row r="56" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -1981,7 +2035,7 @@
     </row>
     <row r="57" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -2005,7 +2059,7 @@
     </row>
     <row r="58" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -2029,7 +2083,7 @@
     </row>
     <row r="59" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2053,7 +2107,7 @@
     </row>
     <row r="60" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2077,7 +2131,7 @@
     </row>
     <row r="61" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -2101,7 +2155,7 @@
     </row>
     <row r="62" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -2125,7 +2179,7 @@
     </row>
     <row r="63" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+      <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -2149,7 +2203,7 @@
     </row>
     <row r="64" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+      <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -2173,7 +2227,7 @@
     </row>
     <row r="65" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+      <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -2197,7 +2251,7 @@
     </row>
     <row r="66" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -2221,7 +2275,7 @@
     </row>
     <row r="67" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+      <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -2245,7 +2299,7 @@
     </row>
     <row r="68" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+      <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -2269,7 +2323,7 @@
     </row>
     <row r="69" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+      <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2293,7 +2347,7 @@
     </row>
     <row r="70" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2317,7 +2371,7 @@
     </row>
     <row r="71" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
+      <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -2341,7 +2395,7 @@
     </row>
     <row r="72" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
+      <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -2365,7 +2419,7 @@
     </row>
     <row r="73" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+      <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -2389,7 +2443,7 @@
     </row>
     <row r="74" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+      <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -2413,7 +2467,7 @@
     </row>
     <row r="75" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+      <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -2437,7 +2491,7 @@
     </row>
     <row r="76" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -2461,7 +2515,7 @@
     </row>
     <row r="77" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+      <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -2485,7 +2539,7 @@
     </row>
     <row r="78" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+      <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -2509,7 +2563,7 @@
     </row>
     <row r="79" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
+      <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -2533,7 +2587,7 @@
     </row>
     <row r="80" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+      <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -2557,7 +2611,7 @@
     </row>
     <row r="81" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+      <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -2581,7 +2635,7 @@
     </row>
     <row r="82" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+      <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -2605,7 +2659,7 @@
     </row>
     <row r="83" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
+      <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -2629,7 +2683,7 @@
     </row>
     <row r="84" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
+      <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -2653,7 +2707,7 @@
     </row>
     <row r="85" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
+      <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -2677,7 +2731,7 @@
     </row>
     <row r="86" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+      <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -2701,7 +2755,7 @@
     </row>
     <row r="87" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+      <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -2725,7 +2779,7 @@
     </row>
     <row r="88" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+      <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -2749,7 +2803,7 @@
     </row>
     <row r="89" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+      <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -2773,7 +2827,7 @@
     </row>
     <row r="90" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
+      <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -2797,7 +2851,7 @@
     </row>
     <row r="91" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
+      <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -2821,7 +2875,7 @@
     </row>
     <row r="92" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
+      <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -2845,7 +2899,7 @@
     </row>
     <row r="93" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
+      <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -2869,7 +2923,7 @@
     </row>
     <row r="94" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
+      <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -2893,7 +2947,7 @@
     </row>
     <row r="95" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
+      <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -2917,7 +2971,7 @@
     </row>
     <row r="96" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+      <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -2941,7 +2995,7 @@
     </row>
     <row r="97" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+      <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -2965,7 +3019,7 @@
     </row>
     <row r="98" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+      <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -2989,7 +3043,7 @@
     </row>
     <row r="99" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
+      <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -3013,7 +3067,7 @@
     </row>
     <row r="100" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+      <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -3037,7 +3091,7 @@
     </row>
     <row r="101" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+      <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -3061,7 +3115,7 @@
     </row>
     <row r="102" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
+      <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -3085,7 +3139,7 @@
     </row>
     <row r="103" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
+      <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -3109,7 +3163,7 @@
     </row>
     <row r="104" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
+      <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -3133,7 +3187,7 @@
     </row>
     <row r="105" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
+      <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -3157,7 +3211,7 @@
     </row>
     <row r="106" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+      <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -3181,7 +3235,7 @@
     </row>
     <row r="107" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+      <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -3205,7 +3259,7 @@
     </row>
     <row r="108" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
+      <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -3229,7 +3283,7 @@
     </row>
     <row r="109" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+      <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -3253,7 +3307,7 @@
     </row>
     <row r="110" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+      <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -3277,7 +3331,7 @@
     </row>
     <row r="111" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
+      <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -3301,7 +3355,7 @@
     </row>
     <row r="112" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+      <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -3325,7 +3379,7 @@
     </row>
     <row r="113" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+      <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -3349,7 +3403,7 @@
     </row>
     <row r="114" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+      <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -3373,7 +3427,7 @@
     </row>
     <row r="115" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
+      <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -3397,7 +3451,7 @@
     </row>
     <row r="116" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
+      <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -3421,7 +3475,7 @@
     </row>
     <row r="117" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
+      <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -3445,7 +3499,7 @@
     </row>
     <row r="118" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+      <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -3469,7 +3523,7 @@
     </row>
     <row r="119" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
+      <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -3493,7 +3547,7 @@
     </row>
     <row r="120" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
+      <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -3517,7 +3571,7 @@
     </row>
     <row r="121" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
+      <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -3541,7 +3595,7 @@
     </row>
     <row r="122" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
+      <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -3565,7 +3619,7 @@
     </row>
     <row r="123" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
+      <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -3589,7 +3643,7 @@
     </row>
     <row r="124" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
+      <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -3613,7 +3667,7 @@
     </row>
     <row r="125" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
+      <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -3637,7 +3691,7 @@
     </row>
     <row r="126" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
+      <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -3661,7 +3715,7 @@
     </row>
     <row r="127" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
+      <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -3685,7 +3739,7 @@
     </row>
     <row r="128" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
+      <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -3709,7 +3763,7 @@
     </row>
     <row r="129" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
+      <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -3733,7 +3787,7 @@
     </row>
     <row r="130" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
+      <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -3757,7 +3811,7 @@
     </row>
     <row r="131" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
+      <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -3781,7 +3835,7 @@
     </row>
     <row r="132" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
+      <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -3805,7 +3859,7 @@
     </row>
     <row r="133" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
+      <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -3829,7 +3883,7 @@
     </row>
     <row r="134" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
+      <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -3853,7 +3907,7 @@
     </row>
     <row r="135" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
+      <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -3877,7 +3931,7 @@
     </row>
     <row r="136" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
+      <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -3901,7 +3955,7 @@
     </row>
     <row r="137" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
+      <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -3925,7 +3979,7 @@
     </row>
     <row r="138" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
+      <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -3949,7 +4003,7 @@
     </row>
     <row r="139" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
+      <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -3973,7 +4027,7 @@
     </row>
     <row r="140" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
+      <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -3997,7 +4051,7 @@
     </row>
     <row r="141" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
+      <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -4021,7 +4075,7 @@
     </row>
     <row r="142" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
+      <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -4045,7 +4099,7 @@
     </row>
     <row r="143" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
+      <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -4069,7 +4123,7 @@
     </row>
     <row r="144" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
+      <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -4093,7 +4147,7 @@
     </row>
     <row r="145" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
+      <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -4117,7 +4171,7 @@
     </row>
     <row r="146" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
+      <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -4141,7 +4195,7 @@
     </row>
     <row r="147" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
+      <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -4165,7 +4219,7 @@
     </row>
     <row r="148" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
+      <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -4189,7 +4243,7 @@
     </row>
     <row r="149" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
+      <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -4213,7 +4267,7 @@
     </row>
     <row r="150" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
+      <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -4237,7 +4291,7 @@
     </row>
     <row r="151" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
+      <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -4261,7 +4315,7 @@
     </row>
     <row r="152" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
+      <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -4285,7 +4339,7 @@
     </row>
     <row r="153" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
+      <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -4309,7 +4363,7 @@
     </row>
     <row r="154" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
+      <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -4333,7 +4387,7 @@
     </row>
     <row r="155" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
+      <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -4357,7 +4411,7 @@
     </row>
     <row r="156" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
+      <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -4381,7 +4435,7 @@
     </row>
     <row r="157" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
+      <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -4405,7 +4459,7 @@
     </row>
     <row r="158" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
+      <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -4429,7 +4483,7 @@
     </row>
     <row r="159" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
+      <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -4453,7 +4507,7 @@
     </row>
     <row r="160" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
+      <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -4477,7 +4531,7 @@
     </row>
     <row r="161" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
+      <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -4501,7 +4555,7 @@
     </row>
     <row r="162" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
+      <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -4525,7 +4579,7 @@
     </row>
     <row r="163" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
+      <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -4549,7 +4603,7 @@
     </row>
     <row r="164" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
+      <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -4573,7 +4627,7 @@
     </row>
     <row r="165" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
+      <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -4597,7 +4651,7 @@
     </row>
     <row r="166" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
+      <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -4621,7 +4675,7 @@
     </row>
     <row r="167" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
+      <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -4645,7 +4699,7 @@
     </row>
     <row r="168" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
+      <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -4669,7 +4723,7 @@
     </row>
     <row r="169" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
+      <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -4693,7 +4747,7 @@
     </row>
     <row r="170" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
+      <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -4717,7 +4771,7 @@
     </row>
     <row r="171" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
+      <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -4741,7 +4795,7 @@
     </row>
     <row r="172" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
+      <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -4765,7 +4819,7 @@
     </row>
     <row r="173" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
+      <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -4789,7 +4843,7 @@
     </row>
     <row r="174" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
+      <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -4813,7 +4867,7 @@
     </row>
     <row r="175" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
+      <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -4837,7 +4891,7 @@
     </row>
     <row r="176" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
+      <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -4861,7 +4915,7 @@
     </row>
     <row r="177" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
+      <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -4885,7 +4939,7 @@
     </row>
     <row r="178" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
+      <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -4909,7 +4963,7 @@
     </row>
     <row r="179" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
+      <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -4933,7 +4987,7 @@
     </row>
     <row r="180" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
+      <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -4957,7 +5011,7 @@
     </row>
     <row r="181" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
+      <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -4981,7 +5035,7 @@
     </row>
     <row r="182" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
+      <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -5005,7 +5059,7 @@
     </row>
     <row r="183" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
+      <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -5029,7 +5083,7 @@
     </row>
     <row r="184" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
+      <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -5053,7 +5107,7 @@
     </row>
     <row r="185" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
+      <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -5077,7 +5131,7 @@
     </row>
     <row r="186" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
+      <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -5101,7 +5155,7 @@
     </row>
     <row r="187" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
+      <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -5125,7 +5179,7 @@
     </row>
     <row r="188" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
+      <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -5149,7 +5203,7 @@
     </row>
     <row r="189" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
+      <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -5173,7 +5227,7 @@
     </row>
     <row r="190" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
+      <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -5197,7 +5251,7 @@
     </row>
     <row r="191" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
+      <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -5221,7 +5275,7 @@
     </row>
     <row r="192" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
+      <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -5245,7 +5299,7 @@
     </row>
     <row r="193" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
+      <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -5269,7 +5323,7 @@
     </row>
     <row r="194" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
+      <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -5293,7 +5347,7 @@
     </row>
     <row r="195" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
+      <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -5317,7 +5371,7 @@
     </row>
     <row r="196" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
+      <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -5341,7 +5395,7 @@
     </row>
     <row r="197" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
+      <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -5365,7 +5419,7 @@
     </row>
     <row r="198" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
+      <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -5389,7 +5443,7 @@
     </row>
     <row r="199" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
+      <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -5413,7 +5467,7 @@
     </row>
     <row r="200" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
+      <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -5437,7 +5491,7 @@
     </row>
     <row r="201" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
+      <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -5461,7 +5515,7 @@
     </row>
     <row r="202" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
+      <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -5485,7 +5539,7 @@
     </row>
     <row r="203" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
+      <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -5509,7 +5563,7 @@
     </row>
     <row r="204" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
+      <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -5533,7 +5587,7 @@
     </row>
     <row r="205" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
+      <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -5557,7 +5611,7 @@
     </row>
     <row r="206" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
+      <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -5581,7 +5635,7 @@
     </row>
     <row r="207" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
+      <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -5605,7 +5659,7 @@
     </row>
     <row r="208" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
+      <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -5629,7 +5683,7 @@
     </row>
     <row r="209" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
+      <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -5653,7 +5707,7 @@
     </row>
     <row r="210" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
+      <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -5677,7 +5731,7 @@
     </row>
     <row r="211" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
+      <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -5701,7 +5755,7 @@
     </row>
     <row r="212" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
+      <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -5725,7 +5779,7 @@
     </row>
     <row r="213" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
+      <c r="B213" s="2"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -5749,7 +5803,7 @@
     </row>
     <row r="214" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
+      <c r="B214" s="2"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -5773,7 +5827,7 @@
     </row>
     <row r="215" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
+      <c r="B215" s="2"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -5797,7 +5851,7 @@
     </row>
     <row r="216" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
+      <c r="B216" s="2"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -5821,7 +5875,7 @@
     </row>
     <row r="217" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
+      <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -5845,7 +5899,7 @@
     </row>
     <row r="218" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
+      <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -5869,7 +5923,7 @@
     </row>
     <row r="219" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
+      <c r="B219" s="2"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -5893,7 +5947,7 @@
     </row>
     <row r="220" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
+      <c r="B220" s="2"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -5917,7 +5971,7 @@
     </row>
     <row r="221" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
+      <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -5940,3124 +5994,3124 @@
       <c r="V221" s="2"/>
     </row>
     <row r="222" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="8"/>
-      <c r="B222" s="8"/>
+      <c r="A222" s="5"/>
+      <c r="B222" s="16"/>
     </row>
     <row r="223" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="8"/>
-      <c r="B223" s="8"/>
+      <c r="A223" s="5"/>
+      <c r="B223" s="16"/>
     </row>
     <row r="224" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="8"/>
-      <c r="B224" s="8"/>
+      <c r="A224" s="5"/>
+      <c r="B224" s="16"/>
     </row>
     <row r="225" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="8"/>
-      <c r="B225" s="8"/>
+      <c r="A225" s="5"/>
+      <c r="B225" s="16"/>
     </row>
     <row r="226" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="8"/>
-      <c r="B226" s="8"/>
+      <c r="A226" s="5"/>
+      <c r="B226" s="16"/>
     </row>
     <row r="227" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="8"/>
-      <c r="B227" s="8"/>
+      <c r="A227" s="5"/>
+      <c r="B227" s="16"/>
     </row>
     <row r="228" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="8"/>
-      <c r="B228" s="8"/>
+      <c r="A228" s="5"/>
+      <c r="B228" s="16"/>
     </row>
     <row r="229" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="8"/>
-      <c r="B229" s="8"/>
+      <c r="A229" s="5"/>
+      <c r="B229" s="16"/>
     </row>
     <row r="230" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="8"/>
-      <c r="B230" s="8"/>
+      <c r="A230" s="5"/>
+      <c r="B230" s="16"/>
     </row>
     <row r="231" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="8"/>
-      <c r="B231" s="8"/>
+      <c r="A231" s="5"/>
+      <c r="B231" s="16"/>
     </row>
     <row r="232" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="8"/>
-      <c r="B232" s="8"/>
+      <c r="A232" s="5"/>
+      <c r="B232" s="16"/>
     </row>
     <row r="233" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="8"/>
-      <c r="B233" s="8"/>
+      <c r="A233" s="5"/>
+      <c r="B233" s="16"/>
     </row>
     <row r="234" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="8"/>
-      <c r="B234" s="8"/>
+      <c r="A234" s="5"/>
+      <c r="B234" s="16"/>
     </row>
     <row r="235" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="8"/>
-      <c r="B235" s="8"/>
+      <c r="A235" s="5"/>
+      <c r="B235" s="16"/>
     </row>
     <row r="236" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="8"/>
-      <c r="B236" s="8"/>
+      <c r="A236" s="5"/>
+      <c r="B236" s="16"/>
     </row>
     <row r="237" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="8"/>
-      <c r="B237" s="8"/>
+      <c r="A237" s="5"/>
+      <c r="B237" s="16"/>
     </row>
     <row r="238" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="8"/>
-      <c r="B238" s="8"/>
+      <c r="A238" s="5"/>
+      <c r="B238" s="16"/>
     </row>
     <row r="239" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="8"/>
-      <c r="B239" s="8"/>
+      <c r="A239" s="5"/>
+      <c r="B239" s="16"/>
     </row>
     <row r="240" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="8"/>
-      <c r="B240" s="8"/>
+      <c r="A240" s="5"/>
+      <c r="B240" s="16"/>
     </row>
     <row r="241" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="8"/>
-      <c r="B241" s="8"/>
+      <c r="A241" s="5"/>
+      <c r="B241" s="16"/>
     </row>
     <row r="242" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="8"/>
-      <c r="B242" s="8"/>
+      <c r="A242" s="5"/>
+      <c r="B242" s="16"/>
     </row>
     <row r="243" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="8"/>
-      <c r="B243" s="8"/>
+      <c r="A243" s="5"/>
+      <c r="B243" s="16"/>
     </row>
     <row r="244" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="8"/>
-      <c r="B244" s="8"/>
+      <c r="A244" s="5"/>
+      <c r="B244" s="16"/>
     </row>
     <row r="245" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="8"/>
-      <c r="B245" s="8"/>
+      <c r="A245" s="5"/>
+      <c r="B245" s="16"/>
     </row>
     <row r="246" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="8"/>
-      <c r="B246" s="8"/>
+      <c r="A246" s="5"/>
+      <c r="B246" s="16"/>
     </row>
     <row r="247" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="8"/>
-      <c r="B247" s="8"/>
+      <c r="A247" s="5"/>
+      <c r="B247" s="16"/>
     </row>
     <row r="248" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="8"/>
-      <c r="B248" s="8"/>
+      <c r="A248" s="5"/>
+      <c r="B248" s="16"/>
     </row>
     <row r="249" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="8"/>
-      <c r="B249" s="8"/>
+      <c r="A249" s="5"/>
+      <c r="B249" s="16"/>
     </row>
     <row r="250" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="8"/>
-      <c r="B250" s="8"/>
+      <c r="A250" s="5"/>
+      <c r="B250" s="16"/>
     </row>
     <row r="251" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="8"/>
-      <c r="B251" s="8"/>
+      <c r="A251" s="5"/>
+      <c r="B251" s="16"/>
     </row>
     <row r="252" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="8"/>
-      <c r="B252" s="8"/>
+      <c r="A252" s="5"/>
+      <c r="B252" s="16"/>
     </row>
     <row r="253" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="8"/>
-      <c r="B253" s="8"/>
+      <c r="A253" s="5"/>
+      <c r="B253" s="16"/>
     </row>
     <row r="254" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="8"/>
-      <c r="B254" s="8"/>
+      <c r="A254" s="5"/>
+      <c r="B254" s="16"/>
     </row>
     <row r="255" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="8"/>
-      <c r="B255" s="8"/>
+      <c r="A255" s="5"/>
+      <c r="B255" s="16"/>
     </row>
     <row r="256" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="8"/>
-      <c r="B256" s="8"/>
+      <c r="A256" s="5"/>
+      <c r="B256" s="16"/>
     </row>
     <row r="257" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="8"/>
-      <c r="B257" s="8"/>
+      <c r="A257" s="5"/>
+      <c r="B257" s="16"/>
     </row>
     <row r="258" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="8"/>
-      <c r="B258" s="8"/>
+      <c r="A258" s="5"/>
+      <c r="B258" s="16"/>
     </row>
     <row r="259" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="8"/>
-      <c r="B259" s="8"/>
+      <c r="A259" s="5"/>
+      <c r="B259" s="16"/>
     </row>
     <row r="260" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="8"/>
-      <c r="B260" s="8"/>
+      <c r="A260" s="5"/>
+      <c r="B260" s="16"/>
     </row>
     <row r="261" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="8"/>
-      <c r="B261" s="8"/>
+      <c r="A261" s="5"/>
+      <c r="B261" s="16"/>
     </row>
     <row r="262" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="8"/>
-      <c r="B262" s="8"/>
+      <c r="A262" s="5"/>
+      <c r="B262" s="16"/>
     </row>
     <row r="263" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="8"/>
-      <c r="B263" s="8"/>
+      <c r="A263" s="5"/>
+      <c r="B263" s="16"/>
     </row>
     <row r="264" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="8"/>
-      <c r="B264" s="8"/>
+      <c r="A264" s="5"/>
+      <c r="B264" s="16"/>
     </row>
     <row r="265" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="8"/>
-      <c r="B265" s="8"/>
+      <c r="A265" s="5"/>
+      <c r="B265" s="16"/>
     </row>
     <row r="266" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="8"/>
-      <c r="B266" s="8"/>
+      <c r="A266" s="5"/>
+      <c r="B266" s="16"/>
     </row>
     <row r="267" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="8"/>
-      <c r="B267" s="8"/>
+      <c r="A267" s="5"/>
+      <c r="B267" s="16"/>
     </row>
     <row r="268" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="8"/>
-      <c r="B268" s="8"/>
+      <c r="A268" s="5"/>
+      <c r="B268" s="16"/>
     </row>
     <row r="269" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="8"/>
-      <c r="B269" s="8"/>
+      <c r="A269" s="5"/>
+      <c r="B269" s="16"/>
     </row>
     <row r="270" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="8"/>
-      <c r="B270" s="8"/>
+      <c r="A270" s="5"/>
+      <c r="B270" s="16"/>
     </row>
     <row r="271" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="8"/>
-      <c r="B271" s="8"/>
+      <c r="A271" s="5"/>
+      <c r="B271" s="16"/>
     </row>
     <row r="272" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="8"/>
-      <c r="B272" s="8"/>
+      <c r="A272" s="5"/>
+      <c r="B272" s="16"/>
     </row>
     <row r="273" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="8"/>
-      <c r="B273" s="8"/>
+      <c r="A273" s="5"/>
+      <c r="B273" s="16"/>
     </row>
     <row r="274" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="8"/>
-      <c r="B274" s="8"/>
+      <c r="A274" s="5"/>
+      <c r="B274" s="16"/>
     </row>
     <row r="275" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="8"/>
-      <c r="B275" s="8"/>
+      <c r="A275" s="5"/>
+      <c r="B275" s="16"/>
     </row>
     <row r="276" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="8"/>
-      <c r="B276" s="8"/>
+      <c r="A276" s="5"/>
+      <c r="B276" s="16"/>
     </row>
     <row r="277" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="8"/>
-      <c r="B277" s="8"/>
+      <c r="A277" s="5"/>
+      <c r="B277" s="16"/>
     </row>
     <row r="278" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="8"/>
-      <c r="B278" s="8"/>
+      <c r="A278" s="5"/>
+      <c r="B278" s="16"/>
     </row>
     <row r="279" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="8"/>
-      <c r="B279" s="8"/>
+      <c r="A279" s="5"/>
+      <c r="B279" s="16"/>
     </row>
     <row r="280" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="8"/>
-      <c r="B280" s="8"/>
+      <c r="A280" s="5"/>
+      <c r="B280" s="16"/>
     </row>
     <row r="281" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="8"/>
-      <c r="B281" s="8"/>
+      <c r="A281" s="5"/>
+      <c r="B281" s="16"/>
     </row>
     <row r="282" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="8"/>
-      <c r="B282" s="8"/>
+      <c r="A282" s="5"/>
+      <c r="B282" s="16"/>
     </row>
     <row r="283" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="8"/>
-      <c r="B283" s="8"/>
+      <c r="A283" s="5"/>
+      <c r="B283" s="16"/>
     </row>
     <row r="284" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="8"/>
-      <c r="B284" s="8"/>
+      <c r="A284" s="5"/>
+      <c r="B284" s="16"/>
     </row>
     <row r="285" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="8"/>
-      <c r="B285" s="8"/>
+      <c r="A285" s="5"/>
+      <c r="B285" s="16"/>
     </row>
     <row r="286" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="8"/>
-      <c r="B286" s="8"/>
+      <c r="A286" s="5"/>
+      <c r="B286" s="16"/>
     </row>
     <row r="287" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="8"/>
-      <c r="B287" s="8"/>
+      <c r="A287" s="5"/>
+      <c r="B287" s="16"/>
     </row>
     <row r="288" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="8"/>
-      <c r="B288" s="8"/>
+      <c r="A288" s="5"/>
+      <c r="B288" s="16"/>
     </row>
     <row r="289" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="8"/>
-      <c r="B289" s="8"/>
+      <c r="A289" s="5"/>
+      <c r="B289" s="16"/>
     </row>
     <row r="290" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="8"/>
-      <c r="B290" s="8"/>
+      <c r="A290" s="5"/>
+      <c r="B290" s="16"/>
     </row>
     <row r="291" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="8"/>
-      <c r="B291" s="8"/>
+      <c r="A291" s="5"/>
+      <c r="B291" s="16"/>
     </row>
     <row r="292" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="8"/>
-      <c r="B292" s="8"/>
+      <c r="A292" s="5"/>
+      <c r="B292" s="16"/>
     </row>
     <row r="293" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="8"/>
-      <c r="B293" s="8"/>
+      <c r="A293" s="5"/>
+      <c r="B293" s="16"/>
     </row>
     <row r="294" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="8"/>
-      <c r="B294" s="8"/>
+      <c r="A294" s="5"/>
+      <c r="B294" s="16"/>
     </row>
     <row r="295" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="8"/>
-      <c r="B295" s="8"/>
+      <c r="A295" s="5"/>
+      <c r="B295" s="16"/>
     </row>
     <row r="296" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="8"/>
-      <c r="B296" s="8"/>
+      <c r="A296" s="5"/>
+      <c r="B296" s="16"/>
     </row>
     <row r="297" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="8"/>
-      <c r="B297" s="8"/>
+      <c r="A297" s="5"/>
+      <c r="B297" s="16"/>
     </row>
     <row r="298" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="8"/>
-      <c r="B298" s="8"/>
+      <c r="A298" s="5"/>
+      <c r="B298" s="16"/>
     </row>
     <row r="299" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="8"/>
-      <c r="B299" s="8"/>
+      <c r="A299" s="5"/>
+      <c r="B299" s="16"/>
     </row>
     <row r="300" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="8"/>
-      <c r="B300" s="8"/>
+      <c r="A300" s="5"/>
+      <c r="B300" s="16"/>
     </row>
     <row r="301" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="8"/>
-      <c r="B301" s="8"/>
+      <c r="A301" s="5"/>
+      <c r="B301" s="16"/>
     </row>
     <row r="302" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="8"/>
-      <c r="B302" s="8"/>
+      <c r="A302" s="5"/>
+      <c r="B302" s="16"/>
     </row>
     <row r="303" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="8"/>
-      <c r="B303" s="8"/>
+      <c r="A303" s="5"/>
+      <c r="B303" s="16"/>
     </row>
     <row r="304" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="8"/>
-      <c r="B304" s="8"/>
+      <c r="A304" s="5"/>
+      <c r="B304" s="16"/>
     </row>
     <row r="305" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="8"/>
-      <c r="B305" s="8"/>
+      <c r="A305" s="5"/>
+      <c r="B305" s="16"/>
     </row>
     <row r="306" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="8"/>
-      <c r="B306" s="8"/>
+      <c r="A306" s="5"/>
+      <c r="B306" s="16"/>
     </row>
     <row r="307" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="8"/>
-      <c r="B307" s="8"/>
+      <c r="A307" s="5"/>
+      <c r="B307" s="16"/>
     </row>
     <row r="308" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="8"/>
-      <c r="B308" s="8"/>
+      <c r="A308" s="5"/>
+      <c r="B308" s="16"/>
     </row>
     <row r="309" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="8"/>
-      <c r="B309" s="8"/>
+      <c r="A309" s="5"/>
+      <c r="B309" s="16"/>
     </row>
     <row r="310" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="8"/>
-      <c r="B310" s="8"/>
+      <c r="A310" s="5"/>
+      <c r="B310" s="16"/>
     </row>
     <row r="311" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="8"/>
-      <c r="B311" s="8"/>
+      <c r="A311" s="5"/>
+      <c r="B311" s="16"/>
     </row>
     <row r="312" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="8"/>
-      <c r="B312" s="8"/>
+      <c r="A312" s="5"/>
+      <c r="B312" s="16"/>
     </row>
     <row r="313" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="8"/>
-      <c r="B313" s="8"/>
+      <c r="A313" s="5"/>
+      <c r="B313" s="16"/>
     </row>
     <row r="314" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="8"/>
-      <c r="B314" s="8"/>
+      <c r="A314" s="5"/>
+      <c r="B314" s="16"/>
     </row>
     <row r="315" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="8"/>
-      <c r="B315" s="8"/>
+      <c r="A315" s="5"/>
+      <c r="B315" s="16"/>
     </row>
     <row r="316" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="8"/>
-      <c r="B316" s="8"/>
+      <c r="A316" s="5"/>
+      <c r="B316" s="16"/>
     </row>
     <row r="317" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="8"/>
-      <c r="B317" s="8"/>
+      <c r="A317" s="5"/>
+      <c r="B317" s="16"/>
     </row>
     <row r="318" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="8"/>
-      <c r="B318" s="8"/>
+      <c r="A318" s="5"/>
+      <c r="B318" s="16"/>
     </row>
     <row r="319" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="8"/>
-      <c r="B319" s="8"/>
+      <c r="A319" s="5"/>
+      <c r="B319" s="16"/>
     </row>
     <row r="320" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="8"/>
-      <c r="B320" s="8"/>
+      <c r="A320" s="5"/>
+      <c r="B320" s="16"/>
     </row>
     <row r="321" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="8"/>
-      <c r="B321" s="8"/>
+      <c r="A321" s="5"/>
+      <c r="B321" s="16"/>
     </row>
     <row r="322" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="8"/>
-      <c r="B322" s="8"/>
+      <c r="A322" s="5"/>
+      <c r="B322" s="16"/>
     </row>
     <row r="323" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="8"/>
-      <c r="B323" s="8"/>
+      <c r="A323" s="5"/>
+      <c r="B323" s="16"/>
     </row>
     <row r="324" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="8"/>
-      <c r="B324" s="8"/>
+      <c r="A324" s="5"/>
+      <c r="B324" s="16"/>
     </row>
     <row r="325" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="8"/>
-      <c r="B325" s="8"/>
+      <c r="A325" s="5"/>
+      <c r="B325" s="16"/>
     </row>
     <row r="326" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="8"/>
-      <c r="B326" s="8"/>
+      <c r="A326" s="5"/>
+      <c r="B326" s="16"/>
     </row>
     <row r="327" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="8"/>
-      <c r="B327" s="8"/>
+      <c r="A327" s="5"/>
+      <c r="B327" s="16"/>
     </row>
     <row r="328" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="8"/>
-      <c r="B328" s="8"/>
+      <c r="A328" s="5"/>
+      <c r="B328" s="16"/>
     </row>
     <row r="329" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A329" s="8"/>
-      <c r="B329" s="8"/>
+      <c r="A329" s="5"/>
+      <c r="B329" s="16"/>
     </row>
     <row r="330" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="8"/>
-      <c r="B330" s="8"/>
+      <c r="A330" s="5"/>
+      <c r="B330" s="16"/>
     </row>
     <row r="331" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="8"/>
-      <c r="B331" s="8"/>
+      <c r="A331" s="5"/>
+      <c r="B331" s="16"/>
     </row>
     <row r="332" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A332" s="8"/>
-      <c r="B332" s="8"/>
+      <c r="A332" s="5"/>
+      <c r="B332" s="16"/>
     </row>
     <row r="333" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="8"/>
-      <c r="B333" s="8"/>
+      <c r="A333" s="5"/>
+      <c r="B333" s="16"/>
     </row>
     <row r="334" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="8"/>
-      <c r="B334" s="8"/>
+      <c r="A334" s="5"/>
+      <c r="B334" s="16"/>
     </row>
     <row r="335" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="8"/>
-      <c r="B335" s="8"/>
+      <c r="A335" s="5"/>
+      <c r="B335" s="16"/>
     </row>
     <row r="336" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="8"/>
-      <c r="B336" s="8"/>
+      <c r="A336" s="5"/>
+      <c r="B336" s="16"/>
     </row>
     <row r="337" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="8"/>
-      <c r="B337" s="8"/>
+      <c r="A337" s="5"/>
+      <c r="B337" s="16"/>
     </row>
     <row r="338" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="8"/>
-      <c r="B338" s="8"/>
+      <c r="A338" s="5"/>
+      <c r="B338" s="16"/>
     </row>
     <row r="339" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="8"/>
-      <c r="B339" s="8"/>
+      <c r="A339" s="5"/>
+      <c r="B339" s="16"/>
     </row>
     <row r="340" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="8"/>
-      <c r="B340" s="8"/>
+      <c r="A340" s="5"/>
+      <c r="B340" s="16"/>
     </row>
     <row r="341" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="8"/>
-      <c r="B341" s="8"/>
+      <c r="A341" s="5"/>
+      <c r="B341" s="16"/>
     </row>
     <row r="342" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="8"/>
-      <c r="B342" s="8"/>
+      <c r="A342" s="5"/>
+      <c r="B342" s="16"/>
     </row>
     <row r="343" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="8"/>
-      <c r="B343" s="8"/>
+      <c r="A343" s="5"/>
+      <c r="B343" s="16"/>
     </row>
     <row r="344" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="8"/>
-      <c r="B344" s="8"/>
+      <c r="A344" s="5"/>
+      <c r="B344" s="16"/>
     </row>
     <row r="345" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="8"/>
-      <c r="B345" s="8"/>
+      <c r="A345" s="5"/>
+      <c r="B345" s="16"/>
     </row>
     <row r="346" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="8"/>
-      <c r="B346" s="8"/>
+      <c r="A346" s="5"/>
+      <c r="B346" s="16"/>
     </row>
     <row r="347" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="8"/>
-      <c r="B347" s="8"/>
+      <c r="A347" s="5"/>
+      <c r="B347" s="16"/>
     </row>
     <row r="348" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="8"/>
-      <c r="B348" s="8"/>
+      <c r="A348" s="5"/>
+      <c r="B348" s="16"/>
     </row>
     <row r="349" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="8"/>
-      <c r="B349" s="8"/>
+      <c r="A349" s="5"/>
+      <c r="B349" s="16"/>
     </row>
     <row r="350" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="8"/>
-      <c r="B350" s="8"/>
+      <c r="A350" s="5"/>
+      <c r="B350" s="16"/>
     </row>
     <row r="351" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="8"/>
-      <c r="B351" s="8"/>
+      <c r="A351" s="5"/>
+      <c r="B351" s="16"/>
     </row>
     <row r="352" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="8"/>
-      <c r="B352" s="8"/>
+      <c r="A352" s="5"/>
+      <c r="B352" s="16"/>
     </row>
     <row r="353" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="8"/>
-      <c r="B353" s="8"/>
+      <c r="A353" s="5"/>
+      <c r="B353" s="16"/>
     </row>
     <row r="354" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="8"/>
-      <c r="B354" s="8"/>
+      <c r="A354" s="5"/>
+      <c r="B354" s="16"/>
     </row>
     <row r="355" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="8"/>
-      <c r="B355" s="8"/>
+      <c r="A355" s="5"/>
+      <c r="B355" s="16"/>
     </row>
     <row r="356" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="8"/>
-      <c r="B356" s="8"/>
+      <c r="A356" s="5"/>
+      <c r="B356" s="16"/>
     </row>
     <row r="357" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="8"/>
-      <c r="B357" s="8"/>
+      <c r="A357" s="5"/>
+      <c r="B357" s="16"/>
     </row>
     <row r="358" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="8"/>
-      <c r="B358" s="8"/>
+      <c r="A358" s="5"/>
+      <c r="B358" s="16"/>
     </row>
     <row r="359" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="8"/>
-      <c r="B359" s="8"/>
+      <c r="A359" s="5"/>
+      <c r="B359" s="16"/>
     </row>
     <row r="360" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="8"/>
-      <c r="B360" s="8"/>
+      <c r="A360" s="5"/>
+      <c r="B360" s="16"/>
     </row>
     <row r="361" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="8"/>
-      <c r="B361" s="8"/>
+      <c r="A361" s="5"/>
+      <c r="B361" s="16"/>
     </row>
     <row r="362" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="8"/>
-      <c r="B362" s="8"/>
+      <c r="A362" s="5"/>
+      <c r="B362" s="16"/>
     </row>
     <row r="363" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="8"/>
-      <c r="B363" s="8"/>
+      <c r="A363" s="5"/>
+      <c r="B363" s="16"/>
     </row>
     <row r="364" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="8"/>
-      <c r="B364" s="8"/>
+      <c r="A364" s="5"/>
+      <c r="B364" s="16"/>
     </row>
     <row r="365" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="8"/>
-      <c r="B365" s="8"/>
+      <c r="A365" s="5"/>
+      <c r="B365" s="16"/>
     </row>
     <row r="366" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="8"/>
-      <c r="B366" s="8"/>
+      <c r="A366" s="5"/>
+      <c r="B366" s="16"/>
     </row>
     <row r="367" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="8"/>
-      <c r="B367" s="8"/>
+      <c r="A367" s="5"/>
+      <c r="B367" s="16"/>
     </row>
     <row r="368" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A368" s="8"/>
-      <c r="B368" s="8"/>
+      <c r="A368" s="5"/>
+      <c r="B368" s="16"/>
     </row>
     <row r="369" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="8"/>
-      <c r="B369" s="8"/>
+      <c r="A369" s="5"/>
+      <c r="B369" s="16"/>
     </row>
     <row r="370" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="8"/>
-      <c r="B370" s="8"/>
+      <c r="A370" s="5"/>
+      <c r="B370" s="16"/>
     </row>
     <row r="371" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A371" s="8"/>
-      <c r="B371" s="8"/>
+      <c r="A371" s="5"/>
+      <c r="B371" s="16"/>
     </row>
     <row r="372" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="8"/>
-      <c r="B372" s="8"/>
+      <c r="A372" s="5"/>
+      <c r="B372" s="16"/>
     </row>
     <row r="373" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A373" s="8"/>
-      <c r="B373" s="8"/>
+      <c r="A373" s="5"/>
+      <c r="B373" s="16"/>
     </row>
     <row r="374" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A374" s="8"/>
-      <c r="B374" s="8"/>
+      <c r="A374" s="5"/>
+      <c r="B374" s="16"/>
     </row>
     <row r="375" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A375" s="8"/>
-      <c r="B375" s="8"/>
+      <c r="A375" s="5"/>
+      <c r="B375" s="16"/>
     </row>
     <row r="376" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="8"/>
-      <c r="B376" s="8"/>
+      <c r="A376" s="5"/>
+      <c r="B376" s="16"/>
     </row>
     <row r="377" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="8"/>
-      <c r="B377" s="8"/>
+      <c r="A377" s="5"/>
+      <c r="B377" s="16"/>
     </row>
     <row r="378" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="8"/>
-      <c r="B378" s="8"/>
+      <c r="A378" s="5"/>
+      <c r="B378" s="16"/>
     </row>
     <row r="379" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="8"/>
-      <c r="B379" s="8"/>
+      <c r="A379" s="5"/>
+      <c r="B379" s="16"/>
     </row>
     <row r="380" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="8"/>
-      <c r="B380" s="8"/>
+      <c r="A380" s="5"/>
+      <c r="B380" s="16"/>
     </row>
     <row r="381" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A381" s="8"/>
-      <c r="B381" s="8"/>
+      <c r="A381" s="5"/>
+      <c r="B381" s="16"/>
     </row>
     <row r="382" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A382" s="8"/>
-      <c r="B382" s="8"/>
+      <c r="A382" s="5"/>
+      <c r="B382" s="16"/>
     </row>
     <row r="383" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="8"/>
-      <c r="B383" s="8"/>
+      <c r="A383" s="5"/>
+      <c r="B383" s="16"/>
     </row>
     <row r="384" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="8"/>
-      <c r="B384" s="8"/>
+      <c r="A384" s="5"/>
+      <c r="B384" s="16"/>
     </row>
     <row r="385" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A385" s="8"/>
-      <c r="B385" s="8"/>
+      <c r="A385" s="5"/>
+      <c r="B385" s="16"/>
     </row>
     <row r="386" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="8"/>
-      <c r="B386" s="8"/>
+      <c r="A386" s="5"/>
+      <c r="B386" s="16"/>
     </row>
     <row r="387" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A387" s="8"/>
-      <c r="B387" s="8"/>
+      <c r="A387" s="5"/>
+      <c r="B387" s="16"/>
     </row>
     <row r="388" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A388" s="8"/>
-      <c r="B388" s="8"/>
+      <c r="A388" s="5"/>
+      <c r="B388" s="16"/>
     </row>
     <row r="389" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="8"/>
-      <c r="B389" s="8"/>
+      <c r="A389" s="5"/>
+      <c r="B389" s="16"/>
     </row>
     <row r="390" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="8"/>
-      <c r="B390" s="8"/>
+      <c r="A390" s="5"/>
+      <c r="B390" s="16"/>
     </row>
     <row r="391" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="8"/>
-      <c r="B391" s="8"/>
+      <c r="A391" s="5"/>
+      <c r="B391" s="16"/>
     </row>
     <row r="392" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="8"/>
-      <c r="B392" s="8"/>
+      <c r="A392" s="5"/>
+      <c r="B392" s="16"/>
     </row>
     <row r="393" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="8"/>
-      <c r="B393" s="8"/>
+      <c r="A393" s="5"/>
+      <c r="B393" s="16"/>
     </row>
     <row r="394" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="8"/>
-      <c r="B394" s="8"/>
+      <c r="A394" s="5"/>
+      <c r="B394" s="16"/>
     </row>
     <row r="395" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A395" s="8"/>
-      <c r="B395" s="8"/>
+      <c r="A395" s="5"/>
+      <c r="B395" s="16"/>
     </row>
     <row r="396" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A396" s="8"/>
-      <c r="B396" s="8"/>
+      <c r="A396" s="5"/>
+      <c r="B396" s="16"/>
     </row>
     <row r="397" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A397" s="8"/>
-      <c r="B397" s="8"/>
+      <c r="A397" s="5"/>
+      <c r="B397" s="16"/>
     </row>
     <row r="398" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A398" s="8"/>
-      <c r="B398" s="8"/>
+      <c r="A398" s="5"/>
+      <c r="B398" s="16"/>
     </row>
     <row r="399" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A399" s="8"/>
-      <c r="B399" s="8"/>
+      <c r="A399" s="5"/>
+      <c r="B399" s="16"/>
     </row>
     <row r="400" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A400" s="8"/>
-      <c r="B400" s="8"/>
+      <c r="A400" s="5"/>
+      <c r="B400" s="16"/>
     </row>
     <row r="401" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A401" s="8"/>
-      <c r="B401" s="8"/>
+      <c r="A401" s="5"/>
+      <c r="B401" s="16"/>
     </row>
     <row r="402" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A402" s="8"/>
-      <c r="B402" s="8"/>
+      <c r="A402" s="5"/>
+      <c r="B402" s="16"/>
     </row>
     <row r="403" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A403" s="8"/>
-      <c r="B403" s="8"/>
+      <c r="A403" s="5"/>
+      <c r="B403" s="16"/>
     </row>
     <row r="404" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A404" s="8"/>
-      <c r="B404" s="8"/>
+      <c r="A404" s="5"/>
+      <c r="B404" s="16"/>
     </row>
     <row r="405" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A405" s="8"/>
-      <c r="B405" s="8"/>
+      <c r="A405" s="5"/>
+      <c r="B405" s="16"/>
     </row>
     <row r="406" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="8"/>
-      <c r="B406" s="8"/>
+      <c r="A406" s="5"/>
+      <c r="B406" s="16"/>
     </row>
     <row r="407" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A407" s="8"/>
-      <c r="B407" s="8"/>
+      <c r="A407" s="5"/>
+      <c r="B407" s="16"/>
     </row>
     <row r="408" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A408" s="8"/>
-      <c r="B408" s="8"/>
+      <c r="A408" s="5"/>
+      <c r="B408" s="16"/>
     </row>
     <row r="409" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A409" s="8"/>
-      <c r="B409" s="8"/>
+      <c r="A409" s="5"/>
+      <c r="B409" s="16"/>
     </row>
     <row r="410" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A410" s="8"/>
-      <c r="B410" s="8"/>
+      <c r="A410" s="5"/>
+      <c r="B410" s="16"/>
     </row>
     <row r="411" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A411" s="8"/>
-      <c r="B411" s="8"/>
+      <c r="A411" s="5"/>
+      <c r="B411" s="16"/>
     </row>
     <row r="412" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A412" s="8"/>
-      <c r="B412" s="8"/>
+      <c r="A412" s="5"/>
+      <c r="B412" s="16"/>
     </row>
     <row r="413" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A413" s="8"/>
-      <c r="B413" s="8"/>
+      <c r="A413" s="5"/>
+      <c r="B413" s="16"/>
     </row>
     <row r="414" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A414" s="8"/>
-      <c r="B414" s="8"/>
+      <c r="A414" s="5"/>
+      <c r="B414" s="16"/>
     </row>
     <row r="415" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A415" s="8"/>
-      <c r="B415" s="8"/>
+      <c r="A415" s="5"/>
+      <c r="B415" s="16"/>
     </row>
     <row r="416" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A416" s="8"/>
-      <c r="B416" s="8"/>
+      <c r="A416" s="5"/>
+      <c r="B416" s="16"/>
     </row>
     <row r="417" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A417" s="8"/>
-      <c r="B417" s="8"/>
+      <c r="A417" s="5"/>
+      <c r="B417" s="16"/>
     </row>
     <row r="418" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A418" s="8"/>
-      <c r="B418" s="8"/>
+      <c r="A418" s="5"/>
+      <c r="B418" s="16"/>
     </row>
     <row r="419" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="8"/>
-      <c r="B419" s="8"/>
+      <c r="A419" s="5"/>
+      <c r="B419" s="16"/>
     </row>
     <row r="420" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A420" s="8"/>
-      <c r="B420" s="8"/>
+      <c r="A420" s="5"/>
+      <c r="B420" s="16"/>
     </row>
     <row r="421" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A421" s="8"/>
-      <c r="B421" s="8"/>
+      <c r="A421" s="5"/>
+      <c r="B421" s="16"/>
     </row>
     <row r="422" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A422" s="8"/>
-      <c r="B422" s="8"/>
+      <c r="A422" s="5"/>
+      <c r="B422" s="16"/>
     </row>
     <row r="423" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A423" s="8"/>
-      <c r="B423" s="8"/>
+      <c r="A423" s="5"/>
+      <c r="B423" s="16"/>
     </row>
     <row r="424" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A424" s="8"/>
-      <c r="B424" s="8"/>
+      <c r="A424" s="5"/>
+      <c r="B424" s="16"/>
     </row>
     <row r="425" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A425" s="8"/>
-      <c r="B425" s="8"/>
+      <c r="A425" s="5"/>
+      <c r="B425" s="16"/>
     </row>
     <row r="426" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A426" s="8"/>
-      <c r="B426" s="8"/>
+      <c r="A426" s="5"/>
+      <c r="B426" s="16"/>
     </row>
     <row r="427" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A427" s="8"/>
-      <c r="B427" s="8"/>
+      <c r="A427" s="5"/>
+      <c r="B427" s="16"/>
     </row>
     <row r="428" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A428" s="8"/>
-      <c r="B428" s="8"/>
+      <c r="A428" s="5"/>
+      <c r="B428" s="16"/>
     </row>
     <row r="429" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A429" s="8"/>
-      <c r="B429" s="8"/>
+      <c r="A429" s="5"/>
+      <c r="B429" s="16"/>
     </row>
     <row r="430" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A430" s="8"/>
-      <c r="B430" s="8"/>
+      <c r="A430" s="5"/>
+      <c r="B430" s="16"/>
     </row>
     <row r="431" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A431" s="8"/>
-      <c r="B431" s="8"/>
+      <c r="A431" s="5"/>
+      <c r="B431" s="16"/>
     </row>
     <row r="432" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A432" s="8"/>
-      <c r="B432" s="8"/>
+      <c r="A432" s="5"/>
+      <c r="B432" s="16"/>
     </row>
     <row r="433" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A433" s="8"/>
-      <c r="B433" s="8"/>
+      <c r="A433" s="5"/>
+      <c r="B433" s="16"/>
     </row>
     <row r="434" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A434" s="8"/>
-      <c r="B434" s="8"/>
+      <c r="A434" s="5"/>
+      <c r="B434" s="16"/>
     </row>
     <row r="435" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A435" s="8"/>
-      <c r="B435" s="8"/>
+      <c r="A435" s="5"/>
+      <c r="B435" s="16"/>
     </row>
     <row r="436" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A436" s="8"/>
-      <c r="B436" s="8"/>
+      <c r="A436" s="5"/>
+      <c r="B436" s="16"/>
     </row>
     <row r="437" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A437" s="8"/>
-      <c r="B437" s="8"/>
+      <c r="A437" s="5"/>
+      <c r="B437" s="16"/>
     </row>
     <row r="438" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A438" s="8"/>
-      <c r="B438" s="8"/>
+      <c r="A438" s="5"/>
+      <c r="B438" s="16"/>
     </row>
     <row r="439" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A439" s="8"/>
-      <c r="B439" s="8"/>
+      <c r="A439" s="5"/>
+      <c r="B439" s="16"/>
     </row>
     <row r="440" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A440" s="8"/>
-      <c r="B440" s="8"/>
+      <c r="A440" s="5"/>
+      <c r="B440" s="16"/>
     </row>
     <row r="441" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A441" s="8"/>
-      <c r="B441" s="8"/>
+      <c r="A441" s="5"/>
+      <c r="B441" s="16"/>
     </row>
     <row r="442" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A442" s="8"/>
-      <c r="B442" s="8"/>
+      <c r="A442" s="5"/>
+      <c r="B442" s="16"/>
     </row>
     <row r="443" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A443" s="8"/>
-      <c r="B443" s="8"/>
+      <c r="A443" s="5"/>
+      <c r="B443" s="16"/>
     </row>
     <row r="444" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A444" s="8"/>
-      <c r="B444" s="8"/>
+      <c r="A444" s="5"/>
+      <c r="B444" s="16"/>
     </row>
     <row r="445" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A445" s="8"/>
-      <c r="B445" s="8"/>
+      <c r="A445" s="5"/>
+      <c r="B445" s="16"/>
     </row>
     <row r="446" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A446" s="8"/>
-      <c r="B446" s="8"/>
+      <c r="A446" s="5"/>
+      <c r="B446" s="16"/>
     </row>
     <row r="447" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A447" s="8"/>
-      <c r="B447" s="8"/>
+      <c r="A447" s="5"/>
+      <c r="B447" s="16"/>
     </row>
     <row r="448" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A448" s="8"/>
-      <c r="B448" s="8"/>
+      <c r="A448" s="5"/>
+      <c r="B448" s="16"/>
     </row>
     <row r="449" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A449" s="8"/>
-      <c r="B449" s="8"/>
+      <c r="A449" s="5"/>
+      <c r="B449" s="16"/>
     </row>
     <row r="450" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A450" s="8"/>
-      <c r="B450" s="8"/>
+      <c r="A450" s="5"/>
+      <c r="B450" s="16"/>
     </row>
     <row r="451" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A451" s="8"/>
-      <c r="B451" s="8"/>
+      <c r="A451" s="5"/>
+      <c r="B451" s="16"/>
     </row>
     <row r="452" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A452" s="8"/>
-      <c r="B452" s="8"/>
+      <c r="A452" s="5"/>
+      <c r="B452" s="16"/>
     </row>
     <row r="453" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A453" s="8"/>
-      <c r="B453" s="8"/>
+      <c r="A453" s="5"/>
+      <c r="B453" s="16"/>
     </row>
     <row r="454" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A454" s="8"/>
-      <c r="B454" s="8"/>
+      <c r="A454" s="5"/>
+      <c r="B454" s="16"/>
     </row>
     <row r="455" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A455" s="8"/>
-      <c r="B455" s="8"/>
+      <c r="A455" s="5"/>
+      <c r="B455" s="16"/>
     </row>
     <row r="456" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A456" s="8"/>
-      <c r="B456" s="8"/>
+      <c r="A456" s="5"/>
+      <c r="B456" s="16"/>
     </row>
     <row r="457" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A457" s="8"/>
-      <c r="B457" s="8"/>
+      <c r="A457" s="5"/>
+      <c r="B457" s="16"/>
     </row>
     <row r="458" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A458" s="8"/>
-      <c r="B458" s="8"/>
+      <c r="A458" s="5"/>
+      <c r="B458" s="16"/>
     </row>
     <row r="459" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A459" s="8"/>
-      <c r="B459" s="8"/>
+      <c r="A459" s="5"/>
+      <c r="B459" s="16"/>
     </row>
     <row r="460" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A460" s="8"/>
-      <c r="B460" s="8"/>
+      <c r="A460" s="5"/>
+      <c r="B460" s="16"/>
     </row>
     <row r="461" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A461" s="8"/>
-      <c r="B461" s="8"/>
+      <c r="A461" s="5"/>
+      <c r="B461" s="16"/>
     </row>
     <row r="462" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A462" s="8"/>
-      <c r="B462" s="8"/>
+      <c r="A462" s="5"/>
+      <c r="B462" s="16"/>
     </row>
     <row r="463" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A463" s="8"/>
-      <c r="B463" s="8"/>
+      <c r="A463" s="5"/>
+      <c r="B463" s="16"/>
     </row>
     <row r="464" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A464" s="8"/>
-      <c r="B464" s="8"/>
+      <c r="A464" s="5"/>
+      <c r="B464" s="16"/>
     </row>
     <row r="465" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A465" s="8"/>
-      <c r="B465" s="8"/>
+      <c r="A465" s="5"/>
+      <c r="B465" s="16"/>
     </row>
     <row r="466" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A466" s="8"/>
-      <c r="B466" s="8"/>
+      <c r="A466" s="5"/>
+      <c r="B466" s="16"/>
     </row>
     <row r="467" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A467" s="8"/>
-      <c r="B467" s="8"/>
+      <c r="A467" s="5"/>
+      <c r="B467" s="16"/>
     </row>
     <row r="468" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A468" s="8"/>
-      <c r="B468" s="8"/>
+      <c r="A468" s="5"/>
+      <c r="B468" s="16"/>
     </row>
     <row r="469" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A469" s="8"/>
-      <c r="B469" s="8"/>
+      <c r="A469" s="5"/>
+      <c r="B469" s="16"/>
     </row>
     <row r="470" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A470" s="8"/>
-      <c r="B470" s="8"/>
+      <c r="A470" s="5"/>
+      <c r="B470" s="16"/>
     </row>
     <row r="471" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A471" s="8"/>
-      <c r="B471" s="8"/>
+      <c r="A471" s="5"/>
+      <c r="B471" s="16"/>
     </row>
     <row r="472" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A472" s="8"/>
-      <c r="B472" s="8"/>
+      <c r="A472" s="5"/>
+      <c r="B472" s="16"/>
     </row>
     <row r="473" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A473" s="8"/>
-      <c r="B473" s="8"/>
+      <c r="A473" s="5"/>
+      <c r="B473" s="16"/>
     </row>
     <row r="474" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A474" s="8"/>
-      <c r="B474" s="8"/>
+      <c r="A474" s="5"/>
+      <c r="B474" s="16"/>
     </row>
     <row r="475" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A475" s="8"/>
-      <c r="B475" s="8"/>
+      <c r="A475" s="5"/>
+      <c r="B475" s="16"/>
     </row>
     <row r="476" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A476" s="8"/>
-      <c r="B476" s="8"/>
+      <c r="A476" s="5"/>
+      <c r="B476" s="16"/>
     </row>
     <row r="477" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A477" s="8"/>
-      <c r="B477" s="8"/>
+      <c r="A477" s="5"/>
+      <c r="B477" s="16"/>
     </row>
     <row r="478" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A478" s="8"/>
-      <c r="B478" s="8"/>
+      <c r="A478" s="5"/>
+      <c r="B478" s="16"/>
     </row>
     <row r="479" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A479" s="8"/>
-      <c r="B479" s="8"/>
+      <c r="A479" s="5"/>
+      <c r="B479" s="16"/>
     </row>
     <row r="480" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A480" s="8"/>
-      <c r="B480" s="8"/>
+      <c r="A480" s="5"/>
+      <c r="B480" s="16"/>
     </row>
     <row r="481" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A481" s="8"/>
-      <c r="B481" s="8"/>
+      <c r="A481" s="5"/>
+      <c r="B481" s="16"/>
     </row>
     <row r="482" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A482" s="8"/>
-      <c r="B482" s="8"/>
+      <c r="A482" s="5"/>
+      <c r="B482" s="16"/>
     </row>
     <row r="483" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A483" s="8"/>
-      <c r="B483" s="8"/>
+      <c r="A483" s="5"/>
+      <c r="B483" s="16"/>
     </row>
     <row r="484" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A484" s="8"/>
-      <c r="B484" s="8"/>
+      <c r="A484" s="5"/>
+      <c r="B484" s="16"/>
     </row>
     <row r="485" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A485" s="8"/>
-      <c r="B485" s="8"/>
+      <c r="A485" s="5"/>
+      <c r="B485" s="16"/>
     </row>
     <row r="486" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A486" s="8"/>
-      <c r="B486" s="8"/>
+      <c r="A486" s="5"/>
+      <c r="B486" s="16"/>
     </row>
     <row r="487" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A487" s="8"/>
-      <c r="B487" s="8"/>
+      <c r="A487" s="5"/>
+      <c r="B487" s="16"/>
     </row>
     <row r="488" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A488" s="8"/>
-      <c r="B488" s="8"/>
+      <c r="A488" s="5"/>
+      <c r="B488" s="16"/>
     </row>
     <row r="489" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A489" s="8"/>
-      <c r="B489" s="8"/>
+      <c r="A489" s="5"/>
+      <c r="B489" s="16"/>
     </row>
     <row r="490" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A490" s="8"/>
-      <c r="B490" s="8"/>
+      <c r="A490" s="5"/>
+      <c r="B490" s="16"/>
     </row>
     <row r="491" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A491" s="8"/>
-      <c r="B491" s="8"/>
+      <c r="A491" s="5"/>
+      <c r="B491" s="16"/>
     </row>
     <row r="492" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A492" s="8"/>
-      <c r="B492" s="8"/>
+      <c r="A492" s="5"/>
+      <c r="B492" s="16"/>
     </row>
     <row r="493" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A493" s="8"/>
-      <c r="B493" s="8"/>
+      <c r="A493" s="5"/>
+      <c r="B493" s="16"/>
     </row>
     <row r="494" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A494" s="8"/>
-      <c r="B494" s="8"/>
+      <c r="A494" s="5"/>
+      <c r="B494" s="16"/>
     </row>
     <row r="495" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A495" s="8"/>
-      <c r="B495" s="8"/>
+      <c r="A495" s="5"/>
+      <c r="B495" s="16"/>
     </row>
     <row r="496" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A496" s="8"/>
-      <c r="B496" s="8"/>
+      <c r="A496" s="5"/>
+      <c r="B496" s="16"/>
     </row>
     <row r="497" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A497" s="8"/>
-      <c r="B497" s="8"/>
+      <c r="A497" s="5"/>
+      <c r="B497" s="16"/>
     </row>
     <row r="498" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A498" s="8"/>
-      <c r="B498" s="8"/>
+      <c r="A498" s="5"/>
+      <c r="B498" s="16"/>
     </row>
     <row r="499" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A499" s="8"/>
-      <c r="B499" s="8"/>
+      <c r="A499" s="5"/>
+      <c r="B499" s="16"/>
     </row>
     <row r="500" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A500" s="8"/>
-      <c r="B500" s="8"/>
+      <c r="A500" s="5"/>
+      <c r="B500" s="16"/>
     </row>
     <row r="501" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A501" s="8"/>
-      <c r="B501" s="8"/>
+      <c r="A501" s="5"/>
+      <c r="B501" s="16"/>
     </row>
     <row r="502" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A502" s="8"/>
-      <c r="B502" s="8"/>
+      <c r="A502" s="5"/>
+      <c r="B502" s="16"/>
     </row>
     <row r="503" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A503" s="8"/>
-      <c r="B503" s="8"/>
+      <c r="A503" s="5"/>
+      <c r="B503" s="16"/>
     </row>
     <row r="504" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A504" s="8"/>
-      <c r="B504" s="8"/>
+      <c r="A504" s="5"/>
+      <c r="B504" s="16"/>
     </row>
     <row r="505" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A505" s="8"/>
-      <c r="B505" s="8"/>
+      <c r="A505" s="5"/>
+      <c r="B505" s="16"/>
     </row>
     <row r="506" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A506" s="8"/>
-      <c r="B506" s="8"/>
+      <c r="A506" s="5"/>
+      <c r="B506" s="16"/>
     </row>
     <row r="507" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A507" s="8"/>
-      <c r="B507" s="8"/>
+      <c r="A507" s="5"/>
+      <c r="B507" s="16"/>
     </row>
     <row r="508" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A508" s="8"/>
-      <c r="B508" s="8"/>
+      <c r="A508" s="5"/>
+      <c r="B508" s="16"/>
     </row>
     <row r="509" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A509" s="8"/>
-      <c r="B509" s="8"/>
+      <c r="A509" s="5"/>
+      <c r="B509" s="16"/>
     </row>
     <row r="510" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A510" s="8"/>
-      <c r="B510" s="8"/>
+      <c r="A510" s="5"/>
+      <c r="B510" s="16"/>
     </row>
     <row r="511" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A511" s="8"/>
-      <c r="B511" s="8"/>
+      <c r="A511" s="5"/>
+      <c r="B511" s="16"/>
     </row>
     <row r="512" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A512" s="8"/>
-      <c r="B512" s="8"/>
+      <c r="A512" s="5"/>
+      <c r="B512" s="16"/>
     </row>
     <row r="513" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A513" s="8"/>
-      <c r="B513" s="8"/>
+      <c r="A513" s="5"/>
+      <c r="B513" s="16"/>
     </row>
     <row r="514" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A514" s="8"/>
-      <c r="B514" s="8"/>
+      <c r="A514" s="5"/>
+      <c r="B514" s="16"/>
     </row>
     <row r="515" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A515" s="8"/>
-      <c r="B515" s="8"/>
+      <c r="A515" s="5"/>
+      <c r="B515" s="16"/>
     </row>
     <row r="516" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A516" s="8"/>
-      <c r="B516" s="8"/>
+      <c r="A516" s="5"/>
+      <c r="B516" s="16"/>
     </row>
     <row r="517" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A517" s="8"/>
-      <c r="B517" s="8"/>
+      <c r="A517" s="5"/>
+      <c r="B517" s="16"/>
     </row>
     <row r="518" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A518" s="8"/>
-      <c r="B518" s="8"/>
+      <c r="A518" s="5"/>
+      <c r="B518" s="16"/>
     </row>
     <row r="519" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A519" s="8"/>
-      <c r="B519" s="8"/>
+      <c r="A519" s="5"/>
+      <c r="B519" s="16"/>
     </row>
     <row r="520" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A520" s="8"/>
-      <c r="B520" s="8"/>
+      <c r="A520" s="5"/>
+      <c r="B520" s="16"/>
     </row>
     <row r="521" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A521" s="8"/>
-      <c r="B521" s="8"/>
+      <c r="A521" s="5"/>
+      <c r="B521" s="16"/>
     </row>
     <row r="522" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A522" s="8"/>
-      <c r="B522" s="8"/>
+      <c r="A522" s="5"/>
+      <c r="B522" s="16"/>
     </row>
     <row r="523" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A523" s="8"/>
-      <c r="B523" s="8"/>
+      <c r="A523" s="5"/>
+      <c r="B523" s="16"/>
     </row>
     <row r="524" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A524" s="8"/>
-      <c r="B524" s="8"/>
+      <c r="A524" s="5"/>
+      <c r="B524" s="16"/>
     </row>
     <row r="525" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A525" s="8"/>
-      <c r="B525" s="8"/>
+      <c r="A525" s="5"/>
+      <c r="B525" s="16"/>
     </row>
     <row r="526" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A526" s="8"/>
-      <c r="B526" s="8"/>
+      <c r="A526" s="5"/>
+      <c r="B526" s="16"/>
     </row>
     <row r="527" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A527" s="8"/>
-      <c r="B527" s="8"/>
+      <c r="A527" s="5"/>
+      <c r="B527" s="16"/>
     </row>
     <row r="528" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A528" s="8"/>
-      <c r="B528" s="8"/>
+      <c r="A528" s="5"/>
+      <c r="B528" s="16"/>
     </row>
     <row r="529" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A529" s="8"/>
-      <c r="B529" s="8"/>
+      <c r="A529" s="5"/>
+      <c r="B529" s="16"/>
     </row>
     <row r="530" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A530" s="8"/>
-      <c r="B530" s="8"/>
+      <c r="A530" s="5"/>
+      <c r="B530" s="16"/>
     </row>
     <row r="531" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A531" s="8"/>
-      <c r="B531" s="8"/>
+      <c r="A531" s="5"/>
+      <c r="B531" s="16"/>
     </row>
     <row r="532" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A532" s="8"/>
-      <c r="B532" s="8"/>
+      <c r="A532" s="5"/>
+      <c r="B532" s="16"/>
     </row>
     <row r="533" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A533" s="8"/>
-      <c r="B533" s="8"/>
+      <c r="A533" s="5"/>
+      <c r="B533" s="16"/>
     </row>
     <row r="534" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A534" s="8"/>
-      <c r="B534" s="8"/>
+      <c r="A534" s="5"/>
+      <c r="B534" s="16"/>
     </row>
     <row r="535" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A535" s="8"/>
-      <c r="B535" s="8"/>
+      <c r="A535" s="5"/>
+      <c r="B535" s="16"/>
     </row>
     <row r="536" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A536" s="8"/>
-      <c r="B536" s="8"/>
+      <c r="A536" s="5"/>
+      <c r="B536" s="16"/>
     </row>
     <row r="537" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A537" s="8"/>
-      <c r="B537" s="8"/>
+      <c r="A537" s="5"/>
+      <c r="B537" s="16"/>
     </row>
     <row r="538" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A538" s="8"/>
-      <c r="B538" s="8"/>
+      <c r="A538" s="5"/>
+      <c r="B538" s="16"/>
     </row>
     <row r="539" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A539" s="8"/>
-      <c r="B539" s="8"/>
+      <c r="A539" s="5"/>
+      <c r="B539" s="16"/>
     </row>
     <row r="540" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A540" s="8"/>
-      <c r="B540" s="8"/>
+      <c r="A540" s="5"/>
+      <c r="B540" s="16"/>
     </row>
     <row r="541" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A541" s="8"/>
-      <c r="B541" s="8"/>
+      <c r="A541" s="5"/>
+      <c r="B541" s="16"/>
     </row>
     <row r="542" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A542" s="8"/>
-      <c r="B542" s="8"/>
+      <c r="A542" s="5"/>
+      <c r="B542" s="16"/>
     </row>
     <row r="543" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A543" s="8"/>
-      <c r="B543" s="8"/>
+      <c r="A543" s="5"/>
+      <c r="B543" s="16"/>
     </row>
     <row r="544" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A544" s="8"/>
-      <c r="B544" s="8"/>
+      <c r="A544" s="5"/>
+      <c r="B544" s="16"/>
     </row>
     <row r="545" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A545" s="8"/>
-      <c r="B545" s="8"/>
+      <c r="A545" s="5"/>
+      <c r="B545" s="16"/>
     </row>
     <row r="546" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A546" s="8"/>
-      <c r="B546" s="8"/>
+      <c r="A546" s="5"/>
+      <c r="B546" s="16"/>
     </row>
     <row r="547" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A547" s="8"/>
-      <c r="B547" s="8"/>
+      <c r="A547" s="5"/>
+      <c r="B547" s="16"/>
     </row>
     <row r="548" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A548" s="8"/>
-      <c r="B548" s="8"/>
+      <c r="A548" s="5"/>
+      <c r="B548" s="16"/>
     </row>
     <row r="549" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A549" s="8"/>
-      <c r="B549" s="8"/>
+      <c r="A549" s="5"/>
+      <c r="B549" s="16"/>
     </row>
     <row r="550" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A550" s="8"/>
-      <c r="B550" s="8"/>
+      <c r="A550" s="5"/>
+      <c r="B550" s="16"/>
     </row>
     <row r="551" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A551" s="8"/>
-      <c r="B551" s="8"/>
+      <c r="A551" s="5"/>
+      <c r="B551" s="16"/>
     </row>
     <row r="552" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A552" s="8"/>
-      <c r="B552" s="8"/>
+      <c r="A552" s="5"/>
+      <c r="B552" s="16"/>
     </row>
     <row r="553" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A553" s="8"/>
-      <c r="B553" s="8"/>
+      <c r="A553" s="5"/>
+      <c r="B553" s="16"/>
     </row>
     <row r="554" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A554" s="8"/>
-      <c r="B554" s="8"/>
+      <c r="A554" s="5"/>
+      <c r="B554" s="16"/>
     </row>
     <row r="555" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A555" s="8"/>
-      <c r="B555" s="8"/>
+      <c r="A555" s="5"/>
+      <c r="B555" s="16"/>
     </row>
     <row r="556" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A556" s="8"/>
-      <c r="B556" s="8"/>
+      <c r="A556" s="5"/>
+      <c r="B556" s="16"/>
     </row>
     <row r="557" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A557" s="8"/>
-      <c r="B557" s="8"/>
+      <c r="A557" s="5"/>
+      <c r="B557" s="16"/>
     </row>
     <row r="558" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A558" s="8"/>
-      <c r="B558" s="8"/>
+      <c r="A558" s="5"/>
+      <c r="B558" s="16"/>
     </row>
     <row r="559" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A559" s="8"/>
-      <c r="B559" s="8"/>
+      <c r="A559" s="5"/>
+      <c r="B559" s="16"/>
     </row>
     <row r="560" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A560" s="8"/>
-      <c r="B560" s="8"/>
+      <c r="A560" s="5"/>
+      <c r="B560" s="16"/>
     </row>
     <row r="561" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A561" s="8"/>
-      <c r="B561" s="8"/>
+      <c r="A561" s="5"/>
+      <c r="B561" s="16"/>
     </row>
     <row r="562" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A562" s="8"/>
-      <c r="B562" s="8"/>
+      <c r="A562" s="5"/>
+      <c r="B562" s="16"/>
     </row>
     <row r="563" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A563" s="8"/>
-      <c r="B563" s="8"/>
+      <c r="A563" s="5"/>
+      <c r="B563" s="16"/>
     </row>
     <row r="564" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A564" s="8"/>
-      <c r="B564" s="8"/>
+      <c r="A564" s="5"/>
+      <c r="B564" s="16"/>
     </row>
     <row r="565" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A565" s="8"/>
-      <c r="B565" s="8"/>
+      <c r="A565" s="5"/>
+      <c r="B565" s="16"/>
     </row>
     <row r="566" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A566" s="8"/>
-      <c r="B566" s="8"/>
+      <c r="A566" s="5"/>
+      <c r="B566" s="16"/>
     </row>
     <row r="567" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A567" s="8"/>
-      <c r="B567" s="8"/>
+      <c r="A567" s="5"/>
+      <c r="B567" s="16"/>
     </row>
     <row r="568" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A568" s="8"/>
-      <c r="B568" s="8"/>
+      <c r="A568" s="5"/>
+      <c r="B568" s="16"/>
     </row>
     <row r="569" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A569" s="8"/>
-      <c r="B569" s="8"/>
+      <c r="A569" s="5"/>
+      <c r="B569" s="16"/>
     </row>
     <row r="570" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A570" s="8"/>
-      <c r="B570" s="8"/>
+      <c r="A570" s="5"/>
+      <c r="B570" s="16"/>
     </row>
     <row r="571" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A571" s="8"/>
-      <c r="B571" s="8"/>
+      <c r="A571" s="5"/>
+      <c r="B571" s="16"/>
     </row>
     <row r="572" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A572" s="8"/>
-      <c r="B572" s="8"/>
+      <c r="A572" s="5"/>
+      <c r="B572" s="16"/>
     </row>
     <row r="573" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A573" s="8"/>
-      <c r="B573" s="8"/>
+      <c r="A573" s="5"/>
+      <c r="B573" s="16"/>
     </row>
     <row r="574" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A574" s="8"/>
-      <c r="B574" s="8"/>
+      <c r="A574" s="5"/>
+      <c r="B574" s="16"/>
     </row>
     <row r="575" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A575" s="8"/>
-      <c r="B575" s="8"/>
+      <c r="A575" s="5"/>
+      <c r="B575" s="16"/>
     </row>
     <row r="576" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A576" s="8"/>
-      <c r="B576" s="8"/>
+      <c r="A576" s="5"/>
+      <c r="B576" s="16"/>
     </row>
     <row r="577" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A577" s="8"/>
-      <c r="B577" s="8"/>
+      <c r="A577" s="5"/>
+      <c r="B577" s="16"/>
     </row>
     <row r="578" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A578" s="8"/>
-      <c r="B578" s="8"/>
+      <c r="A578" s="5"/>
+      <c r="B578" s="16"/>
     </row>
     <row r="579" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A579" s="8"/>
-      <c r="B579" s="8"/>
+      <c r="A579" s="5"/>
+      <c r="B579" s="16"/>
     </row>
     <row r="580" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A580" s="8"/>
-      <c r="B580" s="8"/>
+      <c r="A580" s="5"/>
+      <c r="B580" s="16"/>
     </row>
     <row r="581" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A581" s="8"/>
-      <c r="B581" s="8"/>
+      <c r="A581" s="5"/>
+      <c r="B581" s="16"/>
     </row>
     <row r="582" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A582" s="8"/>
-      <c r="B582" s="8"/>
+      <c r="A582" s="5"/>
+      <c r="B582" s="16"/>
     </row>
     <row r="583" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A583" s="8"/>
-      <c r="B583" s="8"/>
+      <c r="A583" s="5"/>
+      <c r="B583" s="16"/>
     </row>
     <row r="584" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A584" s="8"/>
-      <c r="B584" s="8"/>
+      <c r="A584" s="5"/>
+      <c r="B584" s="16"/>
     </row>
     <row r="585" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A585" s="8"/>
-      <c r="B585" s="8"/>
+      <c r="A585" s="5"/>
+      <c r="B585" s="16"/>
     </row>
     <row r="586" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A586" s="8"/>
-      <c r="B586" s="8"/>
+      <c r="A586" s="5"/>
+      <c r="B586" s="16"/>
     </row>
     <row r="587" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A587" s="8"/>
-      <c r="B587" s="8"/>
+      <c r="A587" s="5"/>
+      <c r="B587" s="16"/>
     </row>
     <row r="588" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A588" s="8"/>
-      <c r="B588" s="8"/>
+      <c r="A588" s="5"/>
+      <c r="B588" s="16"/>
     </row>
     <row r="589" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A589" s="8"/>
-      <c r="B589" s="8"/>
+      <c r="A589" s="5"/>
+      <c r="B589" s="16"/>
     </row>
     <row r="590" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A590" s="8"/>
-      <c r="B590" s="8"/>
+      <c r="A590" s="5"/>
+      <c r="B590" s="16"/>
     </row>
     <row r="591" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A591" s="8"/>
-      <c r="B591" s="8"/>
+      <c r="A591" s="5"/>
+      <c r="B591" s="16"/>
     </row>
     <row r="592" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A592" s="8"/>
-      <c r="B592" s="8"/>
+      <c r="A592" s="5"/>
+      <c r="B592" s="16"/>
     </row>
     <row r="593" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A593" s="8"/>
-      <c r="B593" s="8"/>
+      <c r="A593" s="5"/>
+      <c r="B593" s="16"/>
     </row>
     <row r="594" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A594" s="8"/>
-      <c r="B594" s="8"/>
+      <c r="A594" s="5"/>
+      <c r="B594" s="16"/>
     </row>
     <row r="595" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A595" s="8"/>
-      <c r="B595" s="8"/>
+      <c r="A595" s="5"/>
+      <c r="B595" s="16"/>
     </row>
     <row r="596" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A596" s="8"/>
-      <c r="B596" s="8"/>
+      <c r="A596" s="5"/>
+      <c r="B596" s="16"/>
     </row>
     <row r="597" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A597" s="8"/>
-      <c r="B597" s="8"/>
+      <c r="A597" s="5"/>
+      <c r="B597" s="16"/>
     </row>
     <row r="598" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A598" s="8"/>
-      <c r="B598" s="8"/>
+      <c r="A598" s="5"/>
+      <c r="B598" s="16"/>
     </row>
     <row r="599" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A599" s="8"/>
-      <c r="B599" s="8"/>
+      <c r="A599" s="5"/>
+      <c r="B599" s="16"/>
     </row>
     <row r="600" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A600" s="8"/>
-      <c r="B600" s="8"/>
+      <c r="A600" s="5"/>
+      <c r="B600" s="16"/>
     </row>
     <row r="601" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A601" s="8"/>
-      <c r="B601" s="8"/>
+      <c r="A601" s="5"/>
+      <c r="B601" s="16"/>
     </row>
     <row r="602" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A602" s="8"/>
-      <c r="B602" s="8"/>
+      <c r="A602" s="5"/>
+      <c r="B602" s="16"/>
     </row>
     <row r="603" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A603" s="8"/>
-      <c r="B603" s="8"/>
+      <c r="A603" s="5"/>
+      <c r="B603" s="16"/>
     </row>
     <row r="604" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A604" s="8"/>
-      <c r="B604" s="8"/>
+      <c r="A604" s="5"/>
+      <c r="B604" s="16"/>
     </row>
     <row r="605" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A605" s="8"/>
-      <c r="B605" s="8"/>
+      <c r="A605" s="5"/>
+      <c r="B605" s="16"/>
     </row>
     <row r="606" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A606" s="8"/>
-      <c r="B606" s="8"/>
+      <c r="A606" s="5"/>
+      <c r="B606" s="16"/>
     </row>
     <row r="607" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A607" s="8"/>
-      <c r="B607" s="8"/>
+      <c r="A607" s="5"/>
+      <c r="B607" s="16"/>
     </row>
     <row r="608" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A608" s="8"/>
-      <c r="B608" s="8"/>
+      <c r="A608" s="5"/>
+      <c r="B608" s="16"/>
     </row>
     <row r="609" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A609" s="8"/>
-      <c r="B609" s="8"/>
+      <c r="A609" s="5"/>
+      <c r="B609" s="16"/>
     </row>
     <row r="610" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A610" s="8"/>
-      <c r="B610" s="8"/>
+      <c r="A610" s="5"/>
+      <c r="B610" s="16"/>
     </row>
     <row r="611" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A611" s="8"/>
-      <c r="B611" s="8"/>
+      <c r="A611" s="5"/>
+      <c r="B611" s="16"/>
     </row>
     <row r="612" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A612" s="8"/>
-      <c r="B612" s="8"/>
+      <c r="A612" s="5"/>
+      <c r="B612" s="16"/>
     </row>
     <row r="613" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A613" s="8"/>
-      <c r="B613" s="8"/>
+      <c r="A613" s="5"/>
+      <c r="B613" s="16"/>
     </row>
     <row r="614" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A614" s="8"/>
-      <c r="B614" s="8"/>
+      <c r="A614" s="5"/>
+      <c r="B614" s="16"/>
     </row>
     <row r="615" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A615" s="8"/>
-      <c r="B615" s="8"/>
+      <c r="A615" s="5"/>
+      <c r="B615" s="16"/>
     </row>
     <row r="616" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A616" s="8"/>
-      <c r="B616" s="8"/>
+      <c r="A616" s="5"/>
+      <c r="B616" s="16"/>
     </row>
     <row r="617" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A617" s="8"/>
-      <c r="B617" s="8"/>
+      <c r="A617" s="5"/>
+      <c r="B617" s="16"/>
     </row>
     <row r="618" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A618" s="8"/>
-      <c r="B618" s="8"/>
+      <c r="A618" s="5"/>
+      <c r="B618" s="16"/>
     </row>
     <row r="619" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A619" s="8"/>
-      <c r="B619" s="8"/>
+      <c r="A619" s="5"/>
+      <c r="B619" s="16"/>
     </row>
     <row r="620" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A620" s="8"/>
-      <c r="B620" s="8"/>
+      <c r="A620" s="5"/>
+      <c r="B620" s="16"/>
     </row>
     <row r="621" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A621" s="8"/>
-      <c r="B621" s="8"/>
+      <c r="A621" s="5"/>
+      <c r="B621" s="16"/>
     </row>
     <row r="622" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A622" s="8"/>
-      <c r="B622" s="8"/>
+      <c r="A622" s="5"/>
+      <c r="B622" s="16"/>
     </row>
     <row r="623" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A623" s="8"/>
-      <c r="B623" s="8"/>
+      <c r="A623" s="5"/>
+      <c r="B623" s="16"/>
     </row>
     <row r="624" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A624" s="8"/>
-      <c r="B624" s="8"/>
+      <c r="A624" s="5"/>
+      <c r="B624" s="16"/>
     </row>
     <row r="625" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A625" s="8"/>
-      <c r="B625" s="8"/>
+      <c r="A625" s="5"/>
+      <c r="B625" s="16"/>
     </row>
     <row r="626" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A626" s="8"/>
-      <c r="B626" s="8"/>
+      <c r="A626" s="5"/>
+      <c r="B626" s="16"/>
     </row>
     <row r="627" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A627" s="8"/>
-      <c r="B627" s="8"/>
+      <c r="A627" s="5"/>
+      <c r="B627" s="16"/>
     </row>
     <row r="628" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A628" s="8"/>
-      <c r="B628" s="8"/>
+      <c r="A628" s="5"/>
+      <c r="B628" s="16"/>
     </row>
     <row r="629" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A629" s="8"/>
-      <c r="B629" s="8"/>
+      <c r="A629" s="5"/>
+      <c r="B629" s="16"/>
     </row>
     <row r="630" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A630" s="8"/>
-      <c r="B630" s="8"/>
+      <c r="A630" s="5"/>
+      <c r="B630" s="16"/>
     </row>
     <row r="631" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A631" s="8"/>
-      <c r="B631" s="8"/>
+      <c r="A631" s="5"/>
+      <c r="B631" s="16"/>
     </row>
     <row r="632" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A632" s="8"/>
-      <c r="B632" s="8"/>
+      <c r="A632" s="5"/>
+      <c r="B632" s="16"/>
     </row>
     <row r="633" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A633" s="8"/>
-      <c r="B633" s="8"/>
+      <c r="A633" s="5"/>
+      <c r="B633" s="16"/>
     </row>
     <row r="634" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A634" s="8"/>
-      <c r="B634" s="8"/>
+      <c r="A634" s="5"/>
+      <c r="B634" s="16"/>
     </row>
     <row r="635" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A635" s="8"/>
-      <c r="B635" s="8"/>
+      <c r="A635" s="5"/>
+      <c r="B635" s="16"/>
     </row>
     <row r="636" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A636" s="8"/>
-      <c r="B636" s="8"/>
+      <c r="A636" s="5"/>
+      <c r="B636" s="16"/>
     </row>
     <row r="637" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A637" s="8"/>
-      <c r="B637" s="8"/>
+      <c r="A637" s="5"/>
+      <c r="B637" s="16"/>
     </row>
     <row r="638" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A638" s="8"/>
-      <c r="B638" s="8"/>
+      <c r="A638" s="5"/>
+      <c r="B638" s="16"/>
     </row>
     <row r="639" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A639" s="8"/>
-      <c r="B639" s="8"/>
+      <c r="A639" s="5"/>
+      <c r="B639" s="16"/>
     </row>
     <row r="640" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A640" s="8"/>
-      <c r="B640" s="8"/>
+      <c r="A640" s="5"/>
+      <c r="B640" s="16"/>
     </row>
     <row r="641" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A641" s="8"/>
-      <c r="B641" s="8"/>
+      <c r="A641" s="5"/>
+      <c r="B641" s="16"/>
     </row>
     <row r="642" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A642" s="8"/>
-      <c r="B642" s="8"/>
+      <c r="A642" s="5"/>
+      <c r="B642" s="16"/>
     </row>
     <row r="643" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A643" s="8"/>
-      <c r="B643" s="8"/>
+      <c r="A643" s="5"/>
+      <c r="B643" s="16"/>
     </row>
     <row r="644" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A644" s="8"/>
-      <c r="B644" s="8"/>
+      <c r="A644" s="5"/>
+      <c r="B644" s="16"/>
     </row>
     <row r="645" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A645" s="8"/>
-      <c r="B645" s="8"/>
+      <c r="A645" s="5"/>
+      <c r="B645" s="16"/>
     </row>
     <row r="646" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A646" s="8"/>
-      <c r="B646" s="8"/>
+      <c r="A646" s="5"/>
+      <c r="B646" s="16"/>
     </row>
     <row r="647" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A647" s="8"/>
-      <c r="B647" s="8"/>
+      <c r="A647" s="5"/>
+      <c r="B647" s="16"/>
     </row>
     <row r="648" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A648" s="8"/>
-      <c r="B648" s="8"/>
+      <c r="A648" s="5"/>
+      <c r="B648" s="16"/>
     </row>
     <row r="649" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A649" s="8"/>
-      <c r="B649" s="8"/>
+      <c r="A649" s="5"/>
+      <c r="B649" s="16"/>
     </row>
     <row r="650" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A650" s="8"/>
-      <c r="B650" s="8"/>
+      <c r="A650" s="5"/>
+      <c r="B650" s="16"/>
     </row>
     <row r="651" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A651" s="8"/>
-      <c r="B651" s="8"/>
+      <c r="A651" s="5"/>
+      <c r="B651" s="16"/>
     </row>
     <row r="652" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A652" s="8"/>
-      <c r="B652" s="8"/>
+      <c r="A652" s="5"/>
+      <c r="B652" s="16"/>
     </row>
     <row r="653" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A653" s="8"/>
-      <c r="B653" s="8"/>
+      <c r="A653" s="5"/>
+      <c r="B653" s="16"/>
     </row>
     <row r="654" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A654" s="8"/>
-      <c r="B654" s="8"/>
+      <c r="A654" s="5"/>
+      <c r="B654" s="16"/>
     </row>
     <row r="655" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A655" s="8"/>
-      <c r="B655" s="8"/>
+      <c r="A655" s="5"/>
+      <c r="B655" s="16"/>
     </row>
     <row r="656" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A656" s="8"/>
-      <c r="B656" s="8"/>
+      <c r="A656" s="5"/>
+      <c r="B656" s="16"/>
     </row>
     <row r="657" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A657" s="8"/>
-      <c r="B657" s="8"/>
+      <c r="A657" s="5"/>
+      <c r="B657" s="16"/>
     </row>
     <row r="658" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A658" s="8"/>
-      <c r="B658" s="8"/>
+      <c r="A658" s="5"/>
+      <c r="B658" s="16"/>
     </row>
     <row r="659" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A659" s="8"/>
-      <c r="B659" s="8"/>
+      <c r="A659" s="5"/>
+      <c r="B659" s="16"/>
     </row>
     <row r="660" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A660" s="8"/>
-      <c r="B660" s="8"/>
+      <c r="A660" s="5"/>
+      <c r="B660" s="16"/>
     </row>
     <row r="661" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A661" s="8"/>
-      <c r="B661" s="8"/>
+      <c r="A661" s="5"/>
+      <c r="B661" s="16"/>
     </row>
     <row r="662" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A662" s="8"/>
-      <c r="B662" s="8"/>
+      <c r="A662" s="5"/>
+      <c r="B662" s="16"/>
     </row>
     <row r="663" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A663" s="8"/>
-      <c r="B663" s="8"/>
+      <c r="A663" s="5"/>
+      <c r="B663" s="16"/>
     </row>
     <row r="664" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A664" s="8"/>
-      <c r="B664" s="8"/>
+      <c r="A664" s="5"/>
+      <c r="B664" s="16"/>
     </row>
     <row r="665" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A665" s="8"/>
-      <c r="B665" s="8"/>
+      <c r="A665" s="5"/>
+      <c r="B665" s="16"/>
     </row>
     <row r="666" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A666" s="8"/>
-      <c r="B666" s="8"/>
+      <c r="A666" s="5"/>
+      <c r="B666" s="16"/>
     </row>
     <row r="667" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A667" s="8"/>
-      <c r="B667" s="8"/>
+      <c r="A667" s="5"/>
+      <c r="B667" s="16"/>
     </row>
     <row r="668" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A668" s="8"/>
-      <c r="B668" s="8"/>
+      <c r="A668" s="5"/>
+      <c r="B668" s="16"/>
     </row>
     <row r="669" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A669" s="8"/>
-      <c r="B669" s="8"/>
+      <c r="A669" s="5"/>
+      <c r="B669" s="16"/>
     </row>
     <row r="670" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A670" s="8"/>
-      <c r="B670" s="8"/>
+      <c r="A670" s="5"/>
+      <c r="B670" s="16"/>
     </row>
     <row r="671" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A671" s="8"/>
-      <c r="B671" s="8"/>
+      <c r="A671" s="5"/>
+      <c r="B671" s="16"/>
     </row>
     <row r="672" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A672" s="8"/>
-      <c r="B672" s="8"/>
+      <c r="A672" s="5"/>
+      <c r="B672" s="16"/>
     </row>
     <row r="673" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A673" s="8"/>
-      <c r="B673" s="8"/>
+      <c r="A673" s="5"/>
+      <c r="B673" s="16"/>
     </row>
     <row r="674" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A674" s="8"/>
-      <c r="B674" s="8"/>
+      <c r="A674" s="5"/>
+      <c r="B674" s="16"/>
     </row>
     <row r="675" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A675" s="8"/>
-      <c r="B675" s="8"/>
+      <c r="A675" s="5"/>
+      <c r="B675" s="16"/>
     </row>
     <row r="676" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A676" s="8"/>
-      <c r="B676" s="8"/>
+      <c r="A676" s="5"/>
+      <c r="B676" s="16"/>
     </row>
     <row r="677" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A677" s="8"/>
-      <c r="B677" s="8"/>
+      <c r="A677" s="5"/>
+      <c r="B677" s="16"/>
     </row>
     <row r="678" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A678" s="8"/>
-      <c r="B678" s="8"/>
+      <c r="A678" s="5"/>
+      <c r="B678" s="16"/>
     </row>
     <row r="679" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A679" s="8"/>
-      <c r="B679" s="8"/>
+      <c r="A679" s="5"/>
+      <c r="B679" s="16"/>
     </row>
     <row r="680" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A680" s="8"/>
-      <c r="B680" s="8"/>
+      <c r="A680" s="5"/>
+      <c r="B680" s="16"/>
     </row>
     <row r="681" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A681" s="8"/>
-      <c r="B681" s="8"/>
+      <c r="A681" s="5"/>
+      <c r="B681" s="16"/>
     </row>
     <row r="682" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A682" s="8"/>
-      <c r="B682" s="8"/>
+      <c r="A682" s="5"/>
+      <c r="B682" s="16"/>
     </row>
     <row r="683" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A683" s="8"/>
-      <c r="B683" s="8"/>
+      <c r="A683" s="5"/>
+      <c r="B683" s="16"/>
     </row>
     <row r="684" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A684" s="8"/>
-      <c r="B684" s="8"/>
+      <c r="A684" s="5"/>
+      <c r="B684" s="16"/>
     </row>
     <row r="685" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A685" s="8"/>
-      <c r="B685" s="8"/>
+      <c r="A685" s="5"/>
+      <c r="B685" s="16"/>
     </row>
     <row r="686" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A686" s="8"/>
-      <c r="B686" s="8"/>
+      <c r="A686" s="5"/>
+      <c r="B686" s="16"/>
     </row>
     <row r="687" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A687" s="8"/>
-      <c r="B687" s="8"/>
+      <c r="A687" s="5"/>
+      <c r="B687" s="16"/>
     </row>
     <row r="688" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A688" s="8"/>
-      <c r="B688" s="8"/>
+      <c r="A688" s="5"/>
+      <c r="B688" s="16"/>
     </row>
     <row r="689" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A689" s="8"/>
-      <c r="B689" s="8"/>
+      <c r="A689" s="5"/>
+      <c r="B689" s="16"/>
     </row>
     <row r="690" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A690" s="8"/>
-      <c r="B690" s="8"/>
+      <c r="A690" s="5"/>
+      <c r="B690" s="16"/>
     </row>
     <row r="691" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A691" s="8"/>
-      <c r="B691" s="8"/>
+      <c r="A691" s="5"/>
+      <c r="B691" s="16"/>
     </row>
     <row r="692" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A692" s="8"/>
-      <c r="B692" s="8"/>
+      <c r="A692" s="5"/>
+      <c r="B692" s="16"/>
     </row>
     <row r="693" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A693" s="8"/>
-      <c r="B693" s="8"/>
+      <c r="A693" s="5"/>
+      <c r="B693" s="16"/>
     </row>
     <row r="694" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A694" s="8"/>
-      <c r="B694" s="8"/>
+      <c r="A694" s="5"/>
+      <c r="B694" s="16"/>
     </row>
     <row r="695" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A695" s="8"/>
-      <c r="B695" s="8"/>
+      <c r="A695" s="5"/>
+      <c r="B695" s="16"/>
     </row>
     <row r="696" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A696" s="8"/>
-      <c r="B696" s="8"/>
+      <c r="A696" s="5"/>
+      <c r="B696" s="16"/>
     </row>
     <row r="697" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A697" s="8"/>
-      <c r="B697" s="8"/>
+      <c r="A697" s="5"/>
+      <c r="B697" s="16"/>
     </row>
     <row r="698" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A698" s="8"/>
-      <c r="B698" s="8"/>
+      <c r="A698" s="5"/>
+      <c r="B698" s="16"/>
     </row>
     <row r="699" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A699" s="8"/>
-      <c r="B699" s="8"/>
+      <c r="A699" s="5"/>
+      <c r="B699" s="16"/>
     </row>
     <row r="700" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A700" s="8"/>
-      <c r="B700" s="8"/>
+      <c r="A700" s="5"/>
+      <c r="B700" s="16"/>
     </row>
     <row r="701" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A701" s="8"/>
-      <c r="B701" s="8"/>
+      <c r="A701" s="5"/>
+      <c r="B701" s="16"/>
     </row>
     <row r="702" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A702" s="8"/>
-      <c r="B702" s="8"/>
+      <c r="A702" s="5"/>
+      <c r="B702" s="16"/>
     </row>
     <row r="703" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A703" s="8"/>
-      <c r="B703" s="8"/>
+      <c r="A703" s="5"/>
+      <c r="B703" s="16"/>
     </row>
     <row r="704" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A704" s="8"/>
-      <c r="B704" s="8"/>
+      <c r="A704" s="5"/>
+      <c r="B704" s="16"/>
     </row>
     <row r="705" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A705" s="8"/>
-      <c r="B705" s="8"/>
+      <c r="A705" s="5"/>
+      <c r="B705" s="16"/>
     </row>
     <row r="706" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A706" s="8"/>
-      <c r="B706" s="8"/>
+      <c r="A706" s="5"/>
+      <c r="B706" s="16"/>
     </row>
     <row r="707" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A707" s="8"/>
-      <c r="B707" s="8"/>
+      <c r="A707" s="5"/>
+      <c r="B707" s="16"/>
     </row>
     <row r="708" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A708" s="8"/>
-      <c r="B708" s="8"/>
+      <c r="A708" s="5"/>
+      <c r="B708" s="16"/>
     </row>
     <row r="709" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A709" s="8"/>
-      <c r="B709" s="8"/>
+      <c r="A709" s="5"/>
+      <c r="B709" s="16"/>
     </row>
     <row r="710" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A710" s="8"/>
-      <c r="B710" s="8"/>
+      <c r="A710" s="5"/>
+      <c r="B710" s="16"/>
     </row>
     <row r="711" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A711" s="8"/>
-      <c r="B711" s="8"/>
+      <c r="A711" s="5"/>
+      <c r="B711" s="16"/>
     </row>
     <row r="712" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A712" s="8"/>
-      <c r="B712" s="8"/>
+      <c r="A712" s="5"/>
+      <c r="B712" s="16"/>
     </row>
     <row r="713" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A713" s="8"/>
-      <c r="B713" s="8"/>
+      <c r="A713" s="5"/>
+      <c r="B713" s="16"/>
     </row>
     <row r="714" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A714" s="8"/>
-      <c r="B714" s="8"/>
+      <c r="A714" s="5"/>
+      <c r="B714" s="16"/>
     </row>
     <row r="715" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A715" s="8"/>
-      <c r="B715" s="8"/>
+      <c r="A715" s="5"/>
+      <c r="B715" s="16"/>
     </row>
     <row r="716" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A716" s="8"/>
-      <c r="B716" s="8"/>
+      <c r="A716" s="5"/>
+      <c r="B716" s="16"/>
     </row>
     <row r="717" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A717" s="8"/>
-      <c r="B717" s="8"/>
+      <c r="A717" s="5"/>
+      <c r="B717" s="16"/>
     </row>
     <row r="718" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A718" s="8"/>
-      <c r="B718" s="8"/>
+      <c r="A718" s="5"/>
+      <c r="B718" s="16"/>
     </row>
     <row r="719" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A719" s="8"/>
-      <c r="B719" s="8"/>
+      <c r="A719" s="5"/>
+      <c r="B719" s="16"/>
     </row>
     <row r="720" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A720" s="8"/>
-      <c r="B720" s="8"/>
+      <c r="A720" s="5"/>
+      <c r="B720" s="16"/>
     </row>
     <row r="721" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A721" s="8"/>
-      <c r="B721" s="8"/>
+      <c r="A721" s="5"/>
+      <c r="B721" s="16"/>
     </row>
     <row r="722" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A722" s="8"/>
-      <c r="B722" s="8"/>
+      <c r="A722" s="5"/>
+      <c r="B722" s="16"/>
     </row>
     <row r="723" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A723" s="8"/>
-      <c r="B723" s="8"/>
+      <c r="A723" s="5"/>
+      <c r="B723" s="16"/>
     </row>
     <row r="724" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A724" s="8"/>
-      <c r="B724" s="8"/>
+      <c r="A724" s="5"/>
+      <c r="B724" s="16"/>
     </row>
     <row r="725" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A725" s="8"/>
-      <c r="B725" s="8"/>
+      <c r="A725" s="5"/>
+      <c r="B725" s="16"/>
     </row>
     <row r="726" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A726" s="8"/>
-      <c r="B726" s="8"/>
+      <c r="A726" s="5"/>
+      <c r="B726" s="16"/>
     </row>
     <row r="727" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A727" s="8"/>
-      <c r="B727" s="8"/>
+      <c r="A727" s="5"/>
+      <c r="B727" s="16"/>
     </row>
     <row r="728" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A728" s="8"/>
-      <c r="B728" s="8"/>
+      <c r="A728" s="5"/>
+      <c r="B728" s="16"/>
     </row>
     <row r="729" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A729" s="8"/>
-      <c r="B729" s="8"/>
+      <c r="A729" s="5"/>
+      <c r="B729" s="16"/>
     </row>
     <row r="730" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A730" s="8"/>
-      <c r="B730" s="8"/>
+      <c r="A730" s="5"/>
+      <c r="B730" s="16"/>
     </row>
     <row r="731" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A731" s="8"/>
-      <c r="B731" s="8"/>
+      <c r="A731" s="5"/>
+      <c r="B731" s="16"/>
     </row>
     <row r="732" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A732" s="8"/>
-      <c r="B732" s="8"/>
+      <c r="A732" s="5"/>
+      <c r="B732" s="16"/>
     </row>
     <row r="733" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A733" s="8"/>
-      <c r="B733" s="8"/>
+      <c r="A733" s="5"/>
+      <c r="B733" s="16"/>
     </row>
     <row r="734" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A734" s="8"/>
-      <c r="B734" s="8"/>
+      <c r="A734" s="5"/>
+      <c r="B734" s="16"/>
     </row>
     <row r="735" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A735" s="8"/>
-      <c r="B735" s="8"/>
+      <c r="A735" s="5"/>
+      <c r="B735" s="16"/>
     </row>
     <row r="736" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A736" s="8"/>
-      <c r="B736" s="8"/>
+      <c r="A736" s="5"/>
+      <c r="B736" s="16"/>
     </row>
     <row r="737" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A737" s="8"/>
-      <c r="B737" s="8"/>
+      <c r="A737" s="5"/>
+      <c r="B737" s="16"/>
     </row>
     <row r="738" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A738" s="8"/>
-      <c r="B738" s="8"/>
+      <c r="A738" s="5"/>
+      <c r="B738" s="16"/>
     </row>
     <row r="739" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A739" s="8"/>
-      <c r="B739" s="8"/>
+      <c r="A739" s="5"/>
+      <c r="B739" s="16"/>
     </row>
     <row r="740" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A740" s="8"/>
-      <c r="B740" s="8"/>
+      <c r="A740" s="5"/>
+      <c r="B740" s="16"/>
     </row>
     <row r="741" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A741" s="8"/>
-      <c r="B741" s="8"/>
+      <c r="A741" s="5"/>
+      <c r="B741" s="16"/>
     </row>
     <row r="742" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A742" s="8"/>
-      <c r="B742" s="8"/>
+      <c r="A742" s="5"/>
+      <c r="B742" s="16"/>
     </row>
     <row r="743" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A743" s="8"/>
-      <c r="B743" s="8"/>
+      <c r="A743" s="5"/>
+      <c r="B743" s="16"/>
     </row>
     <row r="744" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A744" s="8"/>
-      <c r="B744" s="8"/>
+      <c r="A744" s="5"/>
+      <c r="B744" s="16"/>
     </row>
     <row r="745" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A745" s="8"/>
-      <c r="B745" s="8"/>
+      <c r="A745" s="5"/>
+      <c r="B745" s="16"/>
     </row>
     <row r="746" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A746" s="8"/>
-      <c r="B746" s="8"/>
+      <c r="A746" s="5"/>
+      <c r="B746" s="16"/>
     </row>
     <row r="747" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A747" s="8"/>
-      <c r="B747" s="8"/>
+      <c r="A747" s="5"/>
+      <c r="B747" s="16"/>
     </row>
     <row r="748" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A748" s="8"/>
-      <c r="B748" s="8"/>
+      <c r="A748" s="5"/>
+      <c r="B748" s="16"/>
     </row>
     <row r="749" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A749" s="8"/>
-      <c r="B749" s="8"/>
+      <c r="A749" s="5"/>
+      <c r="B749" s="16"/>
     </row>
     <row r="750" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A750" s="8"/>
-      <c r="B750" s="8"/>
+      <c r="A750" s="5"/>
+      <c r="B750" s="16"/>
     </row>
     <row r="751" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A751" s="8"/>
-      <c r="B751" s="8"/>
+      <c r="A751" s="5"/>
+      <c r="B751" s="16"/>
     </row>
     <row r="752" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A752" s="8"/>
-      <c r="B752" s="8"/>
+      <c r="A752" s="5"/>
+      <c r="B752" s="16"/>
     </row>
     <row r="753" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A753" s="8"/>
-      <c r="B753" s="8"/>
+      <c r="A753" s="5"/>
+      <c r="B753" s="16"/>
     </row>
     <row r="754" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A754" s="8"/>
-      <c r="B754" s="8"/>
+      <c r="A754" s="5"/>
+      <c r="B754" s="16"/>
     </row>
     <row r="755" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A755" s="8"/>
-      <c r="B755" s="8"/>
+      <c r="A755" s="5"/>
+      <c r="B755" s="16"/>
     </row>
     <row r="756" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A756" s="8"/>
-      <c r="B756" s="8"/>
+      <c r="A756" s="5"/>
+      <c r="B756" s="16"/>
     </row>
     <row r="757" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A757" s="8"/>
-      <c r="B757" s="8"/>
+      <c r="A757" s="5"/>
+      <c r="B757" s="16"/>
     </row>
     <row r="758" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A758" s="8"/>
-      <c r="B758" s="8"/>
+      <c r="A758" s="5"/>
+      <c r="B758" s="16"/>
     </row>
     <row r="759" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A759" s="8"/>
-      <c r="B759" s="8"/>
+      <c r="A759" s="5"/>
+      <c r="B759" s="16"/>
     </row>
     <row r="760" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A760" s="8"/>
-      <c r="B760" s="8"/>
+      <c r="A760" s="5"/>
+      <c r="B760" s="16"/>
     </row>
     <row r="761" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A761" s="8"/>
-      <c r="B761" s="8"/>
+      <c r="A761" s="5"/>
+      <c r="B761" s="16"/>
     </row>
     <row r="762" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A762" s="8"/>
-      <c r="B762" s="8"/>
+      <c r="A762" s="5"/>
+      <c r="B762" s="16"/>
     </row>
     <row r="763" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A763" s="8"/>
-      <c r="B763" s="8"/>
+      <c r="A763" s="5"/>
+      <c r="B763" s="16"/>
     </row>
     <row r="764" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A764" s="8"/>
-      <c r="B764" s="8"/>
+      <c r="A764" s="5"/>
+      <c r="B764" s="16"/>
     </row>
     <row r="765" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A765" s="8"/>
-      <c r="B765" s="8"/>
+      <c r="A765" s="5"/>
+      <c r="B765" s="16"/>
     </row>
     <row r="766" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A766" s="8"/>
-      <c r="B766" s="8"/>
+      <c r="A766" s="5"/>
+      <c r="B766" s="16"/>
     </row>
     <row r="767" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A767" s="8"/>
-      <c r="B767" s="8"/>
+      <c r="A767" s="5"/>
+      <c r="B767" s="16"/>
     </row>
     <row r="768" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A768" s="8"/>
-      <c r="B768" s="8"/>
+      <c r="A768" s="5"/>
+      <c r="B768" s="16"/>
     </row>
     <row r="769" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A769" s="8"/>
-      <c r="B769" s="8"/>
+      <c r="A769" s="5"/>
+      <c r="B769" s="16"/>
     </row>
     <row r="770" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A770" s="8"/>
-      <c r="B770" s="8"/>
+      <c r="A770" s="5"/>
+      <c r="B770" s="16"/>
     </row>
     <row r="771" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A771" s="8"/>
-      <c r="B771" s="8"/>
+      <c r="A771" s="5"/>
+      <c r="B771" s="16"/>
     </row>
     <row r="772" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A772" s="8"/>
-      <c r="B772" s="8"/>
+      <c r="A772" s="5"/>
+      <c r="B772" s="16"/>
     </row>
     <row r="773" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A773" s="8"/>
-      <c r="B773" s="8"/>
+      <c r="A773" s="5"/>
+      <c r="B773" s="16"/>
     </row>
     <row r="774" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A774" s="8"/>
-      <c r="B774" s="8"/>
+      <c r="A774" s="5"/>
+      <c r="B774" s="16"/>
     </row>
     <row r="775" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A775" s="8"/>
-      <c r="B775" s="8"/>
+      <c r="A775" s="5"/>
+      <c r="B775" s="16"/>
     </row>
     <row r="776" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A776" s="8"/>
-      <c r="B776" s="8"/>
+      <c r="A776" s="5"/>
+      <c r="B776" s="16"/>
     </row>
     <row r="777" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A777" s="8"/>
-      <c r="B777" s="8"/>
+      <c r="A777" s="5"/>
+      <c r="B777" s="16"/>
     </row>
     <row r="778" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A778" s="8"/>
-      <c r="B778" s="8"/>
+      <c r="A778" s="5"/>
+      <c r="B778" s="16"/>
     </row>
     <row r="779" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A779" s="8"/>
-      <c r="B779" s="8"/>
+      <c r="A779" s="5"/>
+      <c r="B779" s="16"/>
     </row>
     <row r="780" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A780" s="8"/>
-      <c r="B780" s="8"/>
+      <c r="A780" s="5"/>
+      <c r="B780" s="16"/>
     </row>
     <row r="781" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A781" s="8"/>
-      <c r="B781" s="8"/>
+      <c r="A781" s="5"/>
+      <c r="B781" s="16"/>
     </row>
     <row r="782" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A782" s="8"/>
-      <c r="B782" s="8"/>
+      <c r="A782" s="5"/>
+      <c r="B782" s="16"/>
     </row>
     <row r="783" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A783" s="8"/>
-      <c r="B783" s="8"/>
+      <c r="A783" s="5"/>
+      <c r="B783" s="16"/>
     </row>
     <row r="784" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A784" s="8"/>
-      <c r="B784" s="8"/>
+      <c r="A784" s="5"/>
+      <c r="B784" s="16"/>
     </row>
     <row r="785" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A785" s="8"/>
-      <c r="B785" s="8"/>
+      <c r="A785" s="5"/>
+      <c r="B785" s="16"/>
     </row>
     <row r="786" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A786" s="8"/>
-      <c r="B786" s="8"/>
+      <c r="A786" s="5"/>
+      <c r="B786" s="16"/>
     </row>
     <row r="787" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A787" s="8"/>
-      <c r="B787" s="8"/>
+      <c r="A787" s="5"/>
+      <c r="B787" s="16"/>
     </row>
     <row r="788" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A788" s="8"/>
-      <c r="B788" s="8"/>
+      <c r="A788" s="5"/>
+      <c r="B788" s="16"/>
     </row>
     <row r="789" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A789" s="8"/>
-      <c r="B789" s="8"/>
+      <c r="A789" s="5"/>
+      <c r="B789" s="16"/>
     </row>
     <row r="790" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A790" s="8"/>
-      <c r="B790" s="8"/>
+      <c r="A790" s="5"/>
+      <c r="B790" s="16"/>
     </row>
     <row r="791" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A791" s="8"/>
-      <c r="B791" s="8"/>
+      <c r="A791" s="5"/>
+      <c r="B791" s="16"/>
     </row>
     <row r="792" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A792" s="8"/>
-      <c r="B792" s="8"/>
+      <c r="A792" s="5"/>
+      <c r="B792" s="16"/>
     </row>
     <row r="793" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A793" s="8"/>
-      <c r="B793" s="8"/>
+      <c r="A793" s="5"/>
+      <c r="B793" s="16"/>
     </row>
     <row r="794" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A794" s="8"/>
-      <c r="B794" s="8"/>
+      <c r="A794" s="5"/>
+      <c r="B794" s="16"/>
     </row>
     <row r="795" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A795" s="8"/>
-      <c r="B795" s="8"/>
+      <c r="A795" s="5"/>
+      <c r="B795" s="16"/>
     </row>
     <row r="796" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A796" s="8"/>
-      <c r="B796" s="8"/>
+      <c r="A796" s="5"/>
+      <c r="B796" s="16"/>
     </row>
     <row r="797" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A797" s="8"/>
-      <c r="B797" s="8"/>
+      <c r="A797" s="5"/>
+      <c r="B797" s="16"/>
     </row>
     <row r="798" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A798" s="8"/>
-      <c r="B798" s="8"/>
+      <c r="A798" s="5"/>
+      <c r="B798" s="16"/>
     </row>
     <row r="799" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A799" s="8"/>
-      <c r="B799" s="8"/>
+      <c r="A799" s="5"/>
+      <c r="B799" s="16"/>
     </row>
     <row r="800" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A800" s="8"/>
-      <c r="B800" s="8"/>
+      <c r="A800" s="5"/>
+      <c r="B800" s="16"/>
     </row>
     <row r="801" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A801" s="8"/>
-      <c r="B801" s="8"/>
+      <c r="A801" s="5"/>
+      <c r="B801" s="16"/>
     </row>
     <row r="802" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A802" s="8"/>
-      <c r="B802" s="8"/>
+      <c r="A802" s="5"/>
+      <c r="B802" s="16"/>
     </row>
     <row r="803" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A803" s="8"/>
-      <c r="B803" s="8"/>
+      <c r="A803" s="5"/>
+      <c r="B803" s="16"/>
     </row>
     <row r="804" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A804" s="8"/>
-      <c r="B804" s="8"/>
+      <c r="A804" s="5"/>
+      <c r="B804" s="16"/>
     </row>
     <row r="805" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A805" s="8"/>
-      <c r="B805" s="8"/>
+      <c r="A805" s="5"/>
+      <c r="B805" s="16"/>
     </row>
     <row r="806" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A806" s="8"/>
-      <c r="B806" s="8"/>
+      <c r="A806" s="5"/>
+      <c r="B806" s="16"/>
     </row>
     <row r="807" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A807" s="8"/>
-      <c r="B807" s="8"/>
+      <c r="A807" s="5"/>
+      <c r="B807" s="16"/>
     </row>
     <row r="808" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A808" s="8"/>
-      <c r="B808" s="8"/>
+      <c r="A808" s="5"/>
+      <c r="B808" s="16"/>
     </row>
     <row r="809" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A809" s="8"/>
-      <c r="B809" s="8"/>
+      <c r="A809" s="5"/>
+      <c r="B809" s="16"/>
     </row>
     <row r="810" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A810" s="8"/>
-      <c r="B810" s="8"/>
+      <c r="A810" s="5"/>
+      <c r="B810" s="16"/>
     </row>
     <row r="811" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A811" s="8"/>
-      <c r="B811" s="8"/>
+      <c r="A811" s="5"/>
+      <c r="B811" s="16"/>
     </row>
     <row r="812" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A812" s="8"/>
-      <c r="B812" s="8"/>
+      <c r="A812" s="5"/>
+      <c r="B812" s="16"/>
     </row>
     <row r="813" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A813" s="8"/>
-      <c r="B813" s="8"/>
+      <c r="A813" s="5"/>
+      <c r="B813" s="16"/>
     </row>
     <row r="814" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A814" s="8"/>
-      <c r="B814" s="8"/>
+      <c r="A814" s="5"/>
+      <c r="B814" s="16"/>
     </row>
     <row r="815" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A815" s="8"/>
-      <c r="B815" s="8"/>
+      <c r="A815" s="5"/>
+      <c r="B815" s="16"/>
     </row>
     <row r="816" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A816" s="8"/>
-      <c r="B816" s="8"/>
+      <c r="A816" s="5"/>
+      <c r="B816" s="16"/>
     </row>
     <row r="817" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A817" s="8"/>
-      <c r="B817" s="8"/>
+      <c r="A817" s="5"/>
+      <c r="B817" s="16"/>
     </row>
     <row r="818" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A818" s="8"/>
-      <c r="B818" s="8"/>
+      <c r="A818" s="5"/>
+      <c r="B818" s="16"/>
     </row>
     <row r="819" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A819" s="8"/>
-      <c r="B819" s="8"/>
+      <c r="A819" s="5"/>
+      <c r="B819" s="16"/>
     </row>
     <row r="820" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A820" s="8"/>
-      <c r="B820" s="8"/>
+      <c r="A820" s="5"/>
+      <c r="B820" s="16"/>
     </row>
     <row r="821" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A821" s="8"/>
-      <c r="B821" s="8"/>
+      <c r="A821" s="5"/>
+      <c r="B821" s="16"/>
     </row>
     <row r="822" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A822" s="8"/>
-      <c r="B822" s="8"/>
+      <c r="A822" s="5"/>
+      <c r="B822" s="16"/>
     </row>
     <row r="823" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A823" s="8"/>
-      <c r="B823" s="8"/>
+      <c r="A823" s="5"/>
+      <c r="B823" s="16"/>
     </row>
     <row r="824" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A824" s="8"/>
-      <c r="B824" s="8"/>
+      <c r="A824" s="5"/>
+      <c r="B824" s="16"/>
     </row>
     <row r="825" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A825" s="8"/>
-      <c r="B825" s="8"/>
+      <c r="A825" s="5"/>
+      <c r="B825" s="16"/>
     </row>
     <row r="826" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A826" s="8"/>
-      <c r="B826" s="8"/>
+      <c r="A826" s="5"/>
+      <c r="B826" s="16"/>
     </row>
     <row r="827" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A827" s="8"/>
-      <c r="B827" s="8"/>
+      <c r="A827" s="5"/>
+      <c r="B827" s="16"/>
     </row>
     <row r="828" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A828" s="8"/>
-      <c r="B828" s="8"/>
+      <c r="A828" s="5"/>
+      <c r="B828" s="16"/>
     </row>
     <row r="829" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A829" s="8"/>
-      <c r="B829" s="8"/>
+      <c r="A829" s="5"/>
+      <c r="B829" s="16"/>
     </row>
     <row r="830" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A830" s="8"/>
-      <c r="B830" s="8"/>
+      <c r="A830" s="5"/>
+      <c r="B830" s="16"/>
     </row>
     <row r="831" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A831" s="8"/>
-      <c r="B831" s="8"/>
+      <c r="A831" s="5"/>
+      <c r="B831" s="16"/>
     </row>
     <row r="832" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A832" s="8"/>
-      <c r="B832" s="8"/>
+      <c r="A832" s="5"/>
+      <c r="B832" s="16"/>
     </row>
     <row r="833" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A833" s="8"/>
-      <c r="B833" s="8"/>
+      <c r="A833" s="5"/>
+      <c r="B833" s="16"/>
     </row>
     <row r="834" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A834" s="8"/>
-      <c r="B834" s="8"/>
+      <c r="A834" s="5"/>
+      <c r="B834" s="16"/>
     </row>
     <row r="835" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A835" s="8"/>
-      <c r="B835" s="8"/>
+      <c r="A835" s="5"/>
+      <c r="B835" s="16"/>
     </row>
     <row r="836" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A836" s="8"/>
-      <c r="B836" s="8"/>
+      <c r="A836" s="5"/>
+      <c r="B836" s="16"/>
     </row>
     <row r="837" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A837" s="8"/>
-      <c r="B837" s="8"/>
+      <c r="A837" s="5"/>
+      <c r="B837" s="16"/>
     </row>
     <row r="838" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A838" s="8"/>
-      <c r="B838" s="8"/>
+      <c r="A838" s="5"/>
+      <c r="B838" s="16"/>
     </row>
     <row r="839" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A839" s="8"/>
-      <c r="B839" s="8"/>
+      <c r="A839" s="5"/>
+      <c r="B839" s="16"/>
     </row>
     <row r="840" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A840" s="8"/>
-      <c r="B840" s="8"/>
+      <c r="A840" s="5"/>
+      <c r="B840" s="16"/>
     </row>
     <row r="841" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A841" s="8"/>
-      <c r="B841" s="8"/>
+      <c r="A841" s="5"/>
+      <c r="B841" s="16"/>
     </row>
     <row r="842" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A842" s="8"/>
-      <c r="B842" s="8"/>
+      <c r="A842" s="5"/>
+      <c r="B842" s="16"/>
     </row>
     <row r="843" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A843" s="8"/>
-      <c r="B843" s="8"/>
+      <c r="A843" s="5"/>
+      <c r="B843" s="16"/>
     </row>
     <row r="844" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A844" s="8"/>
-      <c r="B844" s="8"/>
+      <c r="A844" s="5"/>
+      <c r="B844" s="16"/>
     </row>
     <row r="845" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A845" s="8"/>
-      <c r="B845" s="8"/>
+      <c r="A845" s="5"/>
+      <c r="B845" s="16"/>
     </row>
     <row r="846" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A846" s="8"/>
-      <c r="B846" s="8"/>
+      <c r="A846" s="5"/>
+      <c r="B846" s="16"/>
     </row>
     <row r="847" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A847" s="8"/>
-      <c r="B847" s="8"/>
+      <c r="A847" s="5"/>
+      <c r="B847" s="16"/>
     </row>
     <row r="848" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A848" s="8"/>
-      <c r="B848" s="8"/>
+      <c r="A848" s="5"/>
+      <c r="B848" s="16"/>
     </row>
     <row r="849" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A849" s="8"/>
-      <c r="B849" s="8"/>
+      <c r="A849" s="5"/>
+      <c r="B849" s="16"/>
     </row>
     <row r="850" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A850" s="8"/>
-      <c r="B850" s="8"/>
+      <c r="A850" s="5"/>
+      <c r="B850" s="16"/>
     </row>
     <row r="851" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A851" s="8"/>
-      <c r="B851" s="8"/>
+      <c r="A851" s="5"/>
+      <c r="B851" s="16"/>
     </row>
     <row r="852" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A852" s="8"/>
-      <c r="B852" s="8"/>
+      <c r="A852" s="5"/>
+      <c r="B852" s="16"/>
     </row>
     <row r="853" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A853" s="8"/>
-      <c r="B853" s="8"/>
+      <c r="A853" s="5"/>
+      <c r="B853" s="16"/>
     </row>
     <row r="854" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A854" s="8"/>
-      <c r="B854" s="8"/>
+      <c r="A854" s="5"/>
+      <c r="B854" s="16"/>
     </row>
     <row r="855" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A855" s="8"/>
-      <c r="B855" s="8"/>
+      <c r="A855" s="5"/>
+      <c r="B855" s="16"/>
     </row>
     <row r="856" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A856" s="8"/>
-      <c r="B856" s="8"/>
+      <c r="A856" s="5"/>
+      <c r="B856" s="16"/>
     </row>
     <row r="857" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A857" s="8"/>
-      <c r="B857" s="8"/>
+      <c r="A857" s="5"/>
+      <c r="B857" s="16"/>
     </row>
     <row r="858" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A858" s="8"/>
-      <c r="B858" s="8"/>
+      <c r="A858" s="5"/>
+      <c r="B858" s="16"/>
     </row>
     <row r="859" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A859" s="8"/>
-      <c r="B859" s="8"/>
+      <c r="A859" s="5"/>
+      <c r="B859" s="16"/>
     </row>
     <row r="860" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A860" s="8"/>
-      <c r="B860" s="8"/>
+      <c r="A860" s="5"/>
+      <c r="B860" s="16"/>
     </row>
     <row r="861" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A861" s="8"/>
-      <c r="B861" s="8"/>
+      <c r="A861" s="5"/>
+      <c r="B861" s="16"/>
     </row>
     <row r="862" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A862" s="8"/>
-      <c r="B862" s="8"/>
+      <c r="A862" s="5"/>
+      <c r="B862" s="16"/>
     </row>
     <row r="863" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A863" s="8"/>
-      <c r="B863" s="8"/>
+      <c r="A863" s="5"/>
+      <c r="B863" s="16"/>
     </row>
     <row r="864" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A864" s="8"/>
-      <c r="B864" s="8"/>
+      <c r="A864" s="5"/>
+      <c r="B864" s="16"/>
     </row>
     <row r="865" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A865" s="8"/>
-      <c r="B865" s="8"/>
+      <c r="A865" s="5"/>
+      <c r="B865" s="16"/>
     </row>
     <row r="866" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A866" s="8"/>
-      <c r="B866" s="8"/>
+      <c r="A866" s="5"/>
+      <c r="B866" s="16"/>
     </row>
     <row r="867" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A867" s="8"/>
-      <c r="B867" s="8"/>
+      <c r="A867" s="5"/>
+      <c r="B867" s="16"/>
     </row>
     <row r="868" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A868" s="8"/>
-      <c r="B868" s="8"/>
+      <c r="A868" s="5"/>
+      <c r="B868" s="16"/>
     </row>
     <row r="869" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A869" s="8"/>
-      <c r="B869" s="8"/>
+      <c r="A869" s="5"/>
+      <c r="B869" s="16"/>
     </row>
     <row r="870" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A870" s="8"/>
-      <c r="B870" s="8"/>
+      <c r="A870" s="5"/>
+      <c r="B870" s="16"/>
     </row>
     <row r="871" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A871" s="8"/>
-      <c r="B871" s="8"/>
+      <c r="A871" s="5"/>
+      <c r="B871" s="16"/>
     </row>
     <row r="872" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A872" s="8"/>
-      <c r="B872" s="8"/>
+      <c r="A872" s="5"/>
+      <c r="B872" s="16"/>
     </row>
     <row r="873" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A873" s="8"/>
-      <c r="B873" s="8"/>
+      <c r="A873" s="5"/>
+      <c r="B873" s="16"/>
     </row>
     <row r="874" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A874" s="8"/>
-      <c r="B874" s="8"/>
+      <c r="A874" s="5"/>
+      <c r="B874" s="16"/>
     </row>
     <row r="875" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A875" s="8"/>
-      <c r="B875" s="8"/>
+      <c r="A875" s="5"/>
+      <c r="B875" s="16"/>
     </row>
     <row r="876" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A876" s="8"/>
-      <c r="B876" s="8"/>
+      <c r="A876" s="5"/>
+      <c r="B876" s="16"/>
     </row>
     <row r="877" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A877" s="8"/>
-      <c r="B877" s="8"/>
+      <c r="A877" s="5"/>
+      <c r="B877" s="16"/>
     </row>
     <row r="878" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A878" s="8"/>
-      <c r="B878" s="8"/>
+      <c r="A878" s="5"/>
+      <c r="B878" s="16"/>
     </row>
     <row r="879" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A879" s="8"/>
-      <c r="B879" s="8"/>
+      <c r="A879" s="5"/>
+      <c r="B879" s="16"/>
     </row>
     <row r="880" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A880" s="8"/>
-      <c r="B880" s="8"/>
+      <c r="A880" s="5"/>
+      <c r="B880" s="16"/>
     </row>
     <row r="881" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A881" s="8"/>
-      <c r="B881" s="8"/>
+      <c r="A881" s="5"/>
+      <c r="B881" s="16"/>
     </row>
     <row r="882" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A882" s="8"/>
-      <c r="B882" s="8"/>
+      <c r="A882" s="5"/>
+      <c r="B882" s="16"/>
     </row>
     <row r="883" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A883" s="8"/>
-      <c r="B883" s="8"/>
+      <c r="A883" s="5"/>
+      <c r="B883" s="16"/>
     </row>
     <row r="884" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A884" s="8"/>
-      <c r="B884" s="8"/>
+      <c r="A884" s="5"/>
+      <c r="B884" s="16"/>
     </row>
     <row r="885" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A885" s="8"/>
-      <c r="B885" s="8"/>
+      <c r="A885" s="5"/>
+      <c r="B885" s="16"/>
     </row>
     <row r="886" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A886" s="8"/>
-      <c r="B886" s="8"/>
+      <c r="A886" s="5"/>
+      <c r="B886" s="16"/>
     </row>
     <row r="887" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A887" s="8"/>
-      <c r="B887" s="8"/>
+      <c r="A887" s="5"/>
+      <c r="B887" s="16"/>
     </row>
     <row r="888" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A888" s="8"/>
-      <c r="B888" s="8"/>
+      <c r="A888" s="5"/>
+      <c r="B888" s="16"/>
     </row>
     <row r="889" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A889" s="8"/>
-      <c r="B889" s="8"/>
+      <c r="A889" s="5"/>
+      <c r="B889" s="16"/>
     </row>
     <row r="890" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A890" s="8"/>
-      <c r="B890" s="8"/>
+      <c r="A890" s="5"/>
+      <c r="B890" s="16"/>
     </row>
     <row r="891" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A891" s="8"/>
-      <c r="B891" s="8"/>
+      <c r="A891" s="5"/>
+      <c r="B891" s="16"/>
     </row>
     <row r="892" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A892" s="8"/>
-      <c r="B892" s="8"/>
+      <c r="A892" s="5"/>
+      <c r="B892" s="16"/>
     </row>
     <row r="893" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A893" s="8"/>
-      <c r="B893" s="8"/>
+      <c r="A893" s="5"/>
+      <c r="B893" s="16"/>
     </row>
     <row r="894" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A894" s="8"/>
-      <c r="B894" s="8"/>
+      <c r="A894" s="5"/>
+      <c r="B894" s="16"/>
     </row>
     <row r="895" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A895" s="8"/>
-      <c r="B895" s="8"/>
+      <c r="A895" s="5"/>
+      <c r="B895" s="16"/>
     </row>
     <row r="896" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A896" s="8"/>
-      <c r="B896" s="8"/>
+      <c r="A896" s="5"/>
+      <c r="B896" s="16"/>
     </row>
     <row r="897" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A897" s="8"/>
-      <c r="B897" s="8"/>
+      <c r="A897" s="5"/>
+      <c r="B897" s="16"/>
     </row>
     <row r="898" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A898" s="8"/>
-      <c r="B898" s="8"/>
+      <c r="A898" s="5"/>
+      <c r="B898" s="16"/>
     </row>
     <row r="899" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A899" s="8"/>
-      <c r="B899" s="8"/>
+      <c r="A899" s="5"/>
+      <c r="B899" s="16"/>
     </row>
     <row r="900" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A900" s="8"/>
-      <c r="B900" s="8"/>
+      <c r="A900" s="5"/>
+      <c r="B900" s="16"/>
     </row>
     <row r="901" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A901" s="8"/>
-      <c r="B901" s="8"/>
+      <c r="A901" s="5"/>
+      <c r="B901" s="16"/>
     </row>
     <row r="902" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A902" s="8"/>
-      <c r="B902" s="8"/>
+      <c r="A902" s="5"/>
+      <c r="B902" s="16"/>
     </row>
     <row r="903" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A903" s="8"/>
-      <c r="B903" s="8"/>
+      <c r="A903" s="5"/>
+      <c r="B903" s="16"/>
     </row>
     <row r="904" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A904" s="8"/>
-      <c r="B904" s="8"/>
+      <c r="A904" s="5"/>
+      <c r="B904" s="16"/>
     </row>
     <row r="905" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A905" s="8"/>
-      <c r="B905" s="8"/>
+      <c r="A905" s="5"/>
+      <c r="B905" s="16"/>
     </row>
     <row r="906" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A906" s="8"/>
-      <c r="B906" s="8"/>
+      <c r="A906" s="5"/>
+      <c r="B906" s="16"/>
     </row>
     <row r="907" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A907" s="8"/>
-      <c r="B907" s="8"/>
+      <c r="A907" s="5"/>
+      <c r="B907" s="16"/>
     </row>
     <row r="908" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A908" s="8"/>
-      <c r="B908" s="8"/>
+      <c r="A908" s="5"/>
+      <c r="B908" s="16"/>
     </row>
     <row r="909" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A909" s="8"/>
-      <c r="B909" s="8"/>
+      <c r="A909" s="5"/>
+      <c r="B909" s="16"/>
     </row>
     <row r="910" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A910" s="8"/>
-      <c r="B910" s="8"/>
+      <c r="A910" s="5"/>
+      <c r="B910" s="16"/>
     </row>
     <row r="911" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A911" s="8"/>
-      <c r="B911" s="8"/>
+      <c r="A911" s="5"/>
+      <c r="B911" s="16"/>
     </row>
     <row r="912" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A912" s="8"/>
-      <c r="B912" s="8"/>
+      <c r="A912" s="5"/>
+      <c r="B912" s="16"/>
     </row>
     <row r="913" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A913" s="8"/>
-      <c r="B913" s="8"/>
+      <c r="A913" s="5"/>
+      <c r="B913" s="16"/>
     </row>
     <row r="914" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A914" s="8"/>
-      <c r="B914" s="8"/>
+      <c r="A914" s="5"/>
+      <c r="B914" s="16"/>
     </row>
     <row r="915" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A915" s="8"/>
-      <c r="B915" s="8"/>
+      <c r="A915" s="5"/>
+      <c r="B915" s="16"/>
     </row>
     <row r="916" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A916" s="8"/>
-      <c r="B916" s="8"/>
+      <c r="A916" s="5"/>
+      <c r="B916" s="16"/>
     </row>
     <row r="917" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A917" s="8"/>
-      <c r="B917" s="8"/>
+      <c r="A917" s="5"/>
+      <c r="B917" s="16"/>
     </row>
     <row r="918" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A918" s="8"/>
-      <c r="B918" s="8"/>
+      <c r="A918" s="5"/>
+      <c r="B918" s="16"/>
     </row>
     <row r="919" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A919" s="8"/>
-      <c r="B919" s="8"/>
+      <c r="A919" s="5"/>
+      <c r="B919" s="16"/>
     </row>
     <row r="920" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A920" s="8"/>
-      <c r="B920" s="8"/>
+      <c r="A920" s="5"/>
+      <c r="B920" s="16"/>
     </row>
     <row r="921" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A921" s="8"/>
-      <c r="B921" s="8"/>
+      <c r="A921" s="5"/>
+      <c r="B921" s="16"/>
     </row>
     <row r="922" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A922" s="8"/>
-      <c r="B922" s="8"/>
+      <c r="A922" s="5"/>
+      <c r="B922" s="16"/>
     </row>
     <row r="923" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A923" s="8"/>
-      <c r="B923" s="8"/>
+      <c r="A923" s="5"/>
+      <c r="B923" s="16"/>
     </row>
     <row r="924" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A924" s="8"/>
-      <c r="B924" s="8"/>
+      <c r="A924" s="5"/>
+      <c r="B924" s="16"/>
     </row>
     <row r="925" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A925" s="8"/>
-      <c r="B925" s="8"/>
+      <c r="A925" s="5"/>
+      <c r="B925" s="16"/>
     </row>
     <row r="926" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A926" s="8"/>
-      <c r="B926" s="8"/>
+      <c r="A926" s="5"/>
+      <c r="B926" s="16"/>
     </row>
     <row r="927" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A927" s="8"/>
-      <c r="B927" s="8"/>
+      <c r="A927" s="5"/>
+      <c r="B927" s="16"/>
     </row>
     <row r="928" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A928" s="8"/>
-      <c r="B928" s="8"/>
+      <c r="A928" s="5"/>
+      <c r="B928" s="16"/>
     </row>
     <row r="929" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A929" s="8"/>
-      <c r="B929" s="8"/>
+      <c r="A929" s="5"/>
+      <c r="B929" s="16"/>
     </row>
     <row r="930" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A930" s="8"/>
-      <c r="B930" s="8"/>
+      <c r="A930" s="5"/>
+      <c r="B930" s="16"/>
     </row>
     <row r="931" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A931" s="8"/>
-      <c r="B931" s="8"/>
+      <c r="A931" s="5"/>
+      <c r="B931" s="16"/>
     </row>
     <row r="932" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A932" s="8"/>
-      <c r="B932" s="8"/>
+      <c r="A932" s="5"/>
+      <c r="B932" s="16"/>
     </row>
     <row r="933" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A933" s="8"/>
-      <c r="B933" s="8"/>
+      <c r="A933" s="5"/>
+      <c r="B933" s="16"/>
     </row>
     <row r="934" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A934" s="8"/>
-      <c r="B934" s="8"/>
+      <c r="A934" s="5"/>
+      <c r="B934" s="16"/>
     </row>
     <row r="935" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A935" s="8"/>
-      <c r="B935" s="8"/>
+      <c r="A935" s="5"/>
+      <c r="B935" s="16"/>
     </row>
     <row r="936" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A936" s="8"/>
-      <c r="B936" s="8"/>
+      <c r="A936" s="5"/>
+      <c r="B936" s="16"/>
     </row>
     <row r="937" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A937" s="8"/>
-      <c r="B937" s="8"/>
+      <c r="A937" s="5"/>
+      <c r="B937" s="16"/>
     </row>
     <row r="938" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A938" s="8"/>
-      <c r="B938" s="8"/>
+      <c r="A938" s="5"/>
+      <c r="B938" s="16"/>
     </row>
     <row r="939" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A939" s="8"/>
-      <c r="B939" s="8"/>
+      <c r="A939" s="5"/>
+      <c r="B939" s="16"/>
     </row>
     <row r="940" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A940" s="8"/>
-      <c r="B940" s="8"/>
+      <c r="A940" s="5"/>
+      <c r="B940" s="16"/>
     </row>
     <row r="941" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A941" s="8"/>
-      <c r="B941" s="8"/>
+      <c r="A941" s="5"/>
+      <c r="B941" s="16"/>
     </row>
     <row r="942" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A942" s="8"/>
-      <c r="B942" s="8"/>
+      <c r="A942" s="5"/>
+      <c r="B942" s="16"/>
     </row>
     <row r="943" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A943" s="8"/>
-      <c r="B943" s="8"/>
+      <c r="A943" s="5"/>
+      <c r="B943" s="16"/>
     </row>
     <row r="944" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A944" s="8"/>
-      <c r="B944" s="8"/>
+      <c r="A944" s="5"/>
+      <c r="B944" s="16"/>
     </row>
     <row r="945" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A945" s="8"/>
-      <c r="B945" s="8"/>
+      <c r="A945" s="5"/>
+      <c r="B945" s="16"/>
     </row>
     <row r="946" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A946" s="8"/>
-      <c r="B946" s="8"/>
+      <c r="A946" s="5"/>
+      <c r="B946" s="16"/>
     </row>
     <row r="947" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A947" s="8"/>
-      <c r="B947" s="8"/>
+      <c r="A947" s="5"/>
+      <c r="B947" s="16"/>
     </row>
     <row r="948" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A948" s="8"/>
-      <c r="B948" s="8"/>
+      <c r="A948" s="5"/>
+      <c r="B948" s="16"/>
     </row>
     <row r="949" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A949" s="8"/>
-      <c r="B949" s="8"/>
+      <c r="A949" s="5"/>
+      <c r="B949" s="16"/>
     </row>
     <row r="950" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A950" s="8"/>
-      <c r="B950" s="8"/>
+      <c r="A950" s="5"/>
+      <c r="B950" s="16"/>
     </row>
     <row r="951" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A951" s="8"/>
-      <c r="B951" s="8"/>
+      <c r="A951" s="5"/>
+      <c r="B951" s="16"/>
     </row>
     <row r="952" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A952" s="8"/>
-      <c r="B952" s="8"/>
+      <c r="A952" s="5"/>
+      <c r="B952" s="16"/>
     </row>
     <row r="953" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A953" s="8"/>
-      <c r="B953" s="8"/>
+      <c r="A953" s="5"/>
+      <c r="B953" s="16"/>
     </row>
     <row r="954" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A954" s="8"/>
-      <c r="B954" s="8"/>
+      <c r="A954" s="5"/>
+      <c r="B954" s="16"/>
     </row>
     <row r="955" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A955" s="8"/>
-      <c r="B955" s="8"/>
+      <c r="A955" s="5"/>
+      <c r="B955" s="16"/>
     </row>
     <row r="956" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A956" s="8"/>
-      <c r="B956" s="8"/>
+      <c r="A956" s="5"/>
+      <c r="B956" s="16"/>
     </row>
     <row r="957" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A957" s="8"/>
-      <c r="B957" s="8"/>
+      <c r="A957" s="5"/>
+      <c r="B957" s="16"/>
     </row>
     <row r="958" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A958" s="8"/>
-      <c r="B958" s="8"/>
+      <c r="A958" s="5"/>
+      <c r="B958" s="16"/>
     </row>
     <row r="959" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A959" s="8"/>
-      <c r="B959" s="8"/>
+      <c r="A959" s="5"/>
+      <c r="B959" s="16"/>
     </row>
     <row r="960" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A960" s="8"/>
-      <c r="B960" s="8"/>
+      <c r="A960" s="5"/>
+      <c r="B960" s="16"/>
     </row>
     <row r="961" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A961" s="8"/>
-      <c r="B961" s="8"/>
+      <c r="A961" s="5"/>
+      <c r="B961" s="16"/>
     </row>
     <row r="962" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A962" s="8"/>
-      <c r="B962" s="8"/>
+      <c r="A962" s="5"/>
+      <c r="B962" s="16"/>
     </row>
     <row r="963" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A963" s="8"/>
-      <c r="B963" s="8"/>
+      <c r="A963" s="5"/>
+      <c r="B963" s="16"/>
     </row>
     <row r="964" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A964" s="8"/>
-      <c r="B964" s="8"/>
+      <c r="A964" s="5"/>
+      <c r="B964" s="16"/>
     </row>
     <row r="965" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A965" s="8"/>
-      <c r="B965" s="8"/>
+      <c r="A965" s="5"/>
+      <c r="B965" s="16"/>
     </row>
     <row r="966" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A966" s="8"/>
-      <c r="B966" s="8"/>
+      <c r="A966" s="5"/>
+      <c r="B966" s="16"/>
     </row>
     <row r="967" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A967" s="8"/>
-      <c r="B967" s="8"/>
+      <c r="A967" s="5"/>
+      <c r="B967" s="16"/>
     </row>
     <row r="968" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A968" s="8"/>
-      <c r="B968" s="8"/>
+      <c r="A968" s="5"/>
+      <c r="B968" s="16"/>
     </row>
     <row r="969" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A969" s="8"/>
-      <c r="B969" s="8"/>
+      <c r="A969" s="5"/>
+      <c r="B969" s="16"/>
     </row>
     <row r="970" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A970" s="8"/>
-      <c r="B970" s="8"/>
+      <c r="A970" s="5"/>
+      <c r="B970" s="16"/>
     </row>
     <row r="971" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A971" s="8"/>
-      <c r="B971" s="8"/>
+      <c r="A971" s="5"/>
+      <c r="B971" s="16"/>
     </row>
     <row r="972" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A972" s="8"/>
-      <c r="B972" s="8"/>
+      <c r="A972" s="5"/>
+      <c r="B972" s="16"/>
     </row>
     <row r="973" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A973" s="8"/>
-      <c r="B973" s="8"/>
+      <c r="A973" s="5"/>
+      <c r="B973" s="16"/>
     </row>
     <row r="974" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A974" s="8"/>
-      <c r="B974" s="8"/>
+      <c r="A974" s="5"/>
+      <c r="B974" s="16"/>
     </row>
     <row r="975" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A975" s="8"/>
-      <c r="B975" s="8"/>
+      <c r="A975" s="5"/>
+      <c r="B975" s="16"/>
     </row>
     <row r="976" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A976" s="8"/>
-      <c r="B976" s="8"/>
+      <c r="A976" s="5"/>
+      <c r="B976" s="16"/>
     </row>
     <row r="977" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A977" s="8"/>
-      <c r="B977" s="8"/>
+      <c r="A977" s="5"/>
+      <c r="B977" s="16"/>
     </row>
     <row r="978" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A978" s="8"/>
-      <c r="B978" s="8"/>
+      <c r="A978" s="5"/>
+      <c r="B978" s="16"/>
     </row>
     <row r="979" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A979" s="8"/>
-      <c r="B979" s="8"/>
+      <c r="A979" s="5"/>
+      <c r="B979" s="16"/>
     </row>
     <row r="980" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A980" s="8"/>
-      <c r="B980" s="8"/>
+      <c r="A980" s="5"/>
+      <c r="B980" s="16"/>
     </row>
     <row r="981" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A981" s="8"/>
-      <c r="B981" s="8"/>
+      <c r="A981" s="5"/>
+      <c r="B981" s="16"/>
     </row>
     <row r="982" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A982" s="8"/>
-      <c r="B982" s="8"/>
+      <c r="A982" s="5"/>
+      <c r="B982" s="16"/>
     </row>
     <row r="983" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A983" s="8"/>
-      <c r="B983" s="8"/>
+      <c r="A983" s="5"/>
+      <c r="B983" s="16"/>
     </row>
     <row r="984" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A984" s="8"/>
-      <c r="B984" s="8"/>
+      <c r="A984" s="5"/>
+      <c r="B984" s="16"/>
     </row>
     <row r="985" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A985" s="8"/>
-      <c r="B985" s="8"/>
+      <c r="A985" s="5"/>
+      <c r="B985" s="16"/>
     </row>
     <row r="986" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A986" s="8"/>
-      <c r="B986" s="8"/>
+      <c r="A986" s="5"/>
+      <c r="B986" s="16"/>
     </row>
     <row r="987" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A987" s="8"/>
-      <c r="B987" s="8"/>
+      <c r="A987" s="5"/>
+      <c r="B987" s="16"/>
     </row>
     <row r="988" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A988" s="8"/>
-      <c r="B988" s="8"/>
+      <c r="A988" s="5"/>
+      <c r="B988" s="16"/>
     </row>
     <row r="989" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A989" s="8"/>
-      <c r="B989" s="8"/>
+      <c r="A989" s="5"/>
+      <c r="B989" s="16"/>
     </row>
     <row r="990" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A990" s="8"/>
-      <c r="B990" s="8"/>
+      <c r="A990" s="5"/>
+      <c r="B990" s="16"/>
     </row>
     <row r="991" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A991" s="8"/>
-      <c r="B991" s="8"/>
+      <c r="A991" s="5"/>
+      <c r="B991" s="16"/>
     </row>
     <row r="992" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A992" s="8"/>
-      <c r="B992" s="8"/>
+      <c r="A992" s="5"/>
+      <c r="B992" s="16"/>
     </row>
     <row r="993" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A993" s="8"/>
-      <c r="B993" s="8"/>
+      <c r="A993" s="5"/>
+      <c r="B993" s="16"/>
     </row>
     <row r="994" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A994" s="8"/>
-      <c r="B994" s="8"/>
+      <c r="A994" s="5"/>
+      <c r="B994" s="16"/>
     </row>
     <row r="995" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A995" s="8"/>
-      <c r="B995" s="8"/>
+      <c r="A995" s="5"/>
+      <c r="B995" s="16"/>
     </row>
     <row r="996" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A996" s="8"/>
-      <c r="B996" s="8"/>
+      <c r="A996" s="5"/>
+      <c r="B996" s="16"/>
     </row>
     <row r="997" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A997" s="8"/>
-      <c r="B997" s="8"/>
+      <c r="A997" s="5"/>
+      <c r="B997" s="16"/>
     </row>
     <row r="998" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A998" s="8"/>
-      <c r="B998" s="8"/>
+      <c r="A998" s="5"/>
+      <c r="B998" s="16"/>
     </row>
     <row r="999" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A999" s="8"/>
-      <c r="B999" s="8"/>
+      <c r="A999" s="5"/>
+      <c r="B999" s="16"/>
     </row>
     <row r="1000" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1000" s="8"/>
-      <c r="B1000" s="8"/>
+      <c r="A1000" s="5"/>
+      <c r="B1000" s="16"/>
     </row>
     <row r="1001" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1001" s="8"/>
-      <c r="B1001" s="8"/>
+      <c r="A1001" s="5"/>
+      <c r="B1001" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9067,105 +9121,145 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:J996"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="32.88671875" customWidth="1"/>
-    <col min="5" max="26" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="E1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="G1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="E2" s="8"/>
+      <c r="G2" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="B3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>17</v>
+      <c r="D3" s="13" t="s">
+        <v>29</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>17</v>
+      <c r="H3" s="19" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>18</v>
+    <row r="4" spans="1:10" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>34</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>19</v>
+      <c r="B4" s="22" t="s">
+        <v>40</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>20</v>
+      <c r="C4" t="s">
+        <v>16</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>21</v>
+      <c r="D4" s="20" t="s">
+        <v>36</v>
       </c>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="14" t="s">
-        <v>22</v>
+      <c r="E4" s="19"/>
+      <c r="H4" s="19" t="s">
+        <v>38</v>
       </c>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>23</v>
+    </row>
+    <row r="5" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>35</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>24</v>
+      <c r="B5" s="22" t="s">
+        <v>41</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>20</v>
+      <c r="C5" t="s">
+        <v>16</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>25</v>
+      <c r="D5" s="20" t="s">
+        <v>37</v>
       </c>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="H5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10146,53 +10240,50 @@
     <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1000"/>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="19"/>
+    </row>
+    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11187,29 +11278,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12196,6 +12293,6 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/i_codebooks/D3_DU_selection_criteria_from_SAP1_MS_cohort_to_DU_MS_cohort.xlsx
+++ b/i_codebooks/D3_DU_selection_criteria_from_SAP1_MS_cohort_to_DU_MS_cohort.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9123,7 +9123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/i_codebooks/D3_DU_selection_criteria_from_SAP1_MS_cohort_to_DU_MS_cohort.xlsx
+++ b/i_codebooks/D3_DU_selection_criteria_from_SAP1_MS_cohort_to_DU_MS_cohort.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>medatata_name</t>
   </si>
@@ -163,6 +163,9 @@
   <si>
     <t>D3_SAP1_MS-COHORT/cohort_exit_date - D3_SAP1_MS-COHORT/date_MS &lt; 365</t>
   </si>
+  <si>
+    <t>Source tables and variables</t>
+  </si>
 </sst>
 </file>
 
@@ -257,7 +260,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -364,11 +367,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -423,6 +441,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -640,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -9121,13 +9142,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J996"/>
+  <dimension ref="A1:K996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9138,13 +9159,13 @@
     <col min="4" max="4" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" customWidth="1"/>
     <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -9163,20 +9184,23 @@
       <c r="F1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="J1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -9190,11 +9214,11 @@
         <v>14</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="G2" s="21" t="s">
+      <c r="H2" s="21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -9207,11 +9231,11 @@
       <c r="D3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="I3" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>34</v>
       </c>
@@ -9225,11 +9249,11 @@
         <v>36</v>
       </c>
       <c r="E4" s="19"/>
-      <c r="H4" s="19" t="s">
+      <c r="I4" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>35</v>
       </c>
@@ -9242,24 +9266,24 @@
       <c r="D5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="I5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="K5" s="23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/i_codebooks/D3_DU_selection_criteria_from_SAP1_MS_cohort_to_DU_MS_cohort.xlsx
+++ b/i_codebooks/D3_DU_selection_criteria_from_SAP1_MS_cohort_to_DU_MS_cohort.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosgin2\Documents\DP3-MS-SLE\i_codebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lol\Documents\DP3-MS-SLE\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9F1280-EA4B-4FB5-B2F2-4BFB25DC929A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>medatata_name</t>
   </si>
@@ -166,11 +167,14 @@
   <si>
     <t>Source tables and variables</t>
   </si>
+  <si>
+    <t xml:space="preserve">test </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,7 +450,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -658,14 +662,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41.44140625" customWidth="1"/>
     <col min="2" max="2" width="75.21875" style="13" customWidth="1"/>
@@ -9141,22 +9145,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="82.44140625" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.6640625" customWidth="1"/>
@@ -9234,6 +9238,9 @@
       <c r="I3" s="19" t="s">
         <v>38</v>
       </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
@@ -9253,7 +9260,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>35</v>
       </c>
@@ -10271,14 +10278,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="26" width="10.6640625" customWidth="1"/>
   </cols>
@@ -11299,14 +11306,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="26" width="10.6640625" customWidth="1"/>
   </cols>

--- a/i_codebooks/D3_DU_selection_criteria_from_SAP1_MS_cohort_to_DU_MS_cohort.xlsx
+++ b/i_codebooks/D3_DU_selection_criteria_from_SAP1_MS_cohort_to_DU_MS_cohort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lol\Documents\DP3-MS-SLE\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9F1280-EA4B-4FB5-B2F2-4BFB25DC929A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DCC429-2F34-4E78-A526-C5DF79922D25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Parameters" sheetId="3" r:id="rId3"/>
     <sheet name="Example" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mhzNGBeK9861EYEtgLjD+CXFeX/VQ=="/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>medatata_name</t>
   </si>
@@ -134,15 +134,7 @@
     <t>Rule</t>
   </si>
   <si>
-    <t>women_diagnosed_outside_childbearing_age</t>
-  </si>
-  <si>
     <t>women_with_less_than_1_year_fup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 = outside of childbearing age
-1 = otherwise
-</t>
   </si>
   <si>
     <t xml:space="preserve">0 = less than year of follow up at diagnosis date
@@ -156,9 +148,6 @@
     <t>excludes persons who are  never positive for MS_chosen during their study period, that is, who are not stored in D3_SAP1_MS-COHORT</t>
   </si>
   <si>
-    <t>excludes persons which are &lt; 15 years old and &gt; 50 at D3_SAP1_MS-COHORT/date_MS</t>
-  </si>
-  <si>
     <t>excludes women who are diagnosed &lt;1 year before D3_SAP1_MS-COHORT/cohort_exit_date</t>
   </si>
   <si>
@@ -170,16 +159,40 @@
   <si>
     <t xml:space="preserve">test </t>
   </si>
+  <si>
+    <t xml:space="preserve">0 = after childbearing age (&gt;49)
+1 = otherwise
+</t>
+  </si>
+  <si>
+    <t>women_diagnosed_after_childbearing_age</t>
+  </si>
+  <si>
+    <t>excludes persons which are &gt; 50  years old at D3_SAP1_MS-COHORT/date_MS</t>
+  </si>
+  <si>
+    <t>should be 0</t>
+  </si>
+  <si>
+    <t>Only for datasources with complete cohort of Women of childbearing age (Norway, Wales and Emilia Romania)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,64 +403,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9149,10 +9166,10 @@
   <dimension ref="A1:K996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9189,7 +9206,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>30</v>
@@ -9219,7 +9236,7 @@
       </c>
       <c r="E2" s="8"/>
       <c r="H2" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9227,7 +9244,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -9236,48 +9253,54 @@
         <v>29</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="I4" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
